--- a/099-納品物/000-要件定義/003-WBS-納品版.xlsx
+++ b/099-納品物/000-要件定義/003-WBS-納品版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\099-納品物\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09316AA6-A628-43DC-BA5C-9229014E1246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FFA84F-DC1D-4781-B1F2-F09FAD67B9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="13" r:id="rId1"/>
@@ -1735,7 +1735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2106,9 +2106,237 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2118,12 +2346,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2136,310 +2358,91 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3303,10 +3306,10 @@
   <dimension ref="A1:BO46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="R11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AQ38" sqref="AQ38"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3323,94 +3326,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="196" t="s">
+      <c r="C1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="197"/>
-      <c r="E1" s="202" t="s">
+      <c r="D1" s="144"/>
+      <c r="E1" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="204" t="s">
+      <c r="F1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="187">
+      <c r="G1" s="134">
         <v>45536</v>
       </c>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="188"/>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="188"/>
-      <c r="AD1" s="188"/>
-      <c r="AE1" s="188"/>
-      <c r="AF1" s="188"/>
-      <c r="AG1" s="188"/>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="188"/>
-      <c r="AJ1" s="189"/>
-      <c r="AK1" s="187">
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="135"/>
+      <c r="AJ1" s="136"/>
+      <c r="AK1" s="134">
         <v>45566</v>
       </c>
-      <c r="AL1" s="188"/>
-      <c r="AM1" s="188"/>
-      <c r="AN1" s="188"/>
-      <c r="AO1" s="188"/>
-      <c r="AP1" s="188"/>
-      <c r="AQ1" s="188"/>
-      <c r="AR1" s="188"/>
-      <c r="AS1" s="188"/>
-      <c r="AT1" s="188"/>
-      <c r="AU1" s="188"/>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="188"/>
-      <c r="AX1" s="188"/>
-      <c r="AY1" s="188"/>
-      <c r="AZ1" s="188"/>
-      <c r="BA1" s="188"/>
-      <c r="BB1" s="188"/>
-      <c r="BC1" s="188"/>
-      <c r="BD1" s="188"/>
-      <c r="BE1" s="188"/>
-      <c r="BF1" s="188"/>
-      <c r="BG1" s="188"/>
-      <c r="BH1" s="188"/>
-      <c r="BI1" s="188"/>
-      <c r="BJ1" s="188"/>
-      <c r="BK1" s="188"/>
-      <c r="BL1" s="188"/>
-      <c r="BM1" s="188"/>
-      <c r="BN1" s="189"/>
+      <c r="AL1" s="135"/>
+      <c r="AM1" s="135"/>
+      <c r="AN1" s="135"/>
+      <c r="AO1" s="135"/>
+      <c r="AP1" s="135"/>
+      <c r="AQ1" s="135"/>
+      <c r="AR1" s="135"/>
+      <c r="AS1" s="135"/>
+      <c r="AT1" s="135"/>
+      <c r="AU1" s="135"/>
+      <c r="AV1" s="135"/>
+      <c r="AW1" s="135"/>
+      <c r="AX1" s="135"/>
+      <c r="AY1" s="135"/>
+      <c r="AZ1" s="135"/>
+      <c r="BA1" s="135"/>
+      <c r="BB1" s="135"/>
+      <c r="BC1" s="135"/>
+      <c r="BD1" s="135"/>
+      <c r="BE1" s="135"/>
+      <c r="BF1" s="135"/>
+      <c r="BG1" s="135"/>
+      <c r="BH1" s="135"/>
+      <c r="BI1" s="135"/>
+      <c r="BJ1" s="135"/>
+      <c r="BK1" s="135"/>
+      <c r="BL1" s="135"/>
+      <c r="BM1" s="135"/>
+      <c r="BN1" s="136"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="191"/>
-      <c r="B2" s="194"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="205"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="152"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3652,12 +3655,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="192"/>
-      <c r="B3" s="195"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="206"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="153"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3840,20 +3843,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="182">
+      <c r="A4" s="154">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="183" t="s">
+      <c r="C4" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="184"/>
-      <c r="E4" s="155" t="s">
+      <c r="D4" s="157"/>
+      <c r="E4" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="185"/>
+      <c r="F4" s="162"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -3916,12 +3919,12 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="161"/>
+      <c r="A5" s="155"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="186"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="163"/>
       <c r="G5" s="122"/>
       <c r="H5" s="100"/>
       <c r="I5" s="123"/>
@@ -3984,18 +3987,18 @@
       <c r="BN5" s="119"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="138">
+      <c r="A6" s="164">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="159"/>
-      <c r="E6" s="160" t="s">
+      <c r="D6" s="173"/>
+      <c r="E6" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="180"/>
+      <c r="F6" s="177"/>
       <c r="G6" s="51"/>
       <c r="H6" s="62"/>
       <c r="I6" s="118"/>
@@ -4058,12 +4061,12 @@
       <c r="BN6" s="72"/>
     </row>
     <row r="7" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A7" s="161"/>
+      <c r="A7" s="155"/>
       <c r="B7" s="102"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="181"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="178"/>
       <c r="G7" s="101"/>
       <c r="H7" s="68"/>
       <c r="I7" s="96"/>
@@ -4071,7 +4074,7 @@
       <c r="K7" s="123"/>
       <c r="L7" s="17"/>
       <c r="M7" s="23"/>
-      <c r="N7" s="234"/>
+      <c r="N7" s="128"/>
       <c r="O7" s="68"/>
       <c r="P7" s="68"/>
       <c r="Q7" s="68"/>
@@ -4126,20 +4129,20 @@
       <c r="BN7" s="72"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="138">
+      <c r="A8" s="164">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="147" t="s">
+      <c r="C8" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="148"/>
-      <c r="E8" s="155" t="s">
+      <c r="D8" s="166"/>
+      <c r="E8" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="154"/>
+      <c r="F8" s="204"/>
       <c r="G8" s="50"/>
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
@@ -4202,12 +4205,12 @@
       <c r="BN8" s="95"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="161"/>
+      <c r="A9" s="155"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="141"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="201"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -4215,9 +4218,9 @@
       <c r="K9" s="63"/>
       <c r="L9" s="13"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="235"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="129"/>
       <c r="Q9" s="63"/>
       <c r="R9" s="63"/>
       <c r="S9" s="13"/>
@@ -4270,18 +4273,18 @@
       <c r="BN9" s="72"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="138">
+      <c r="A10" s="164">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="148"/>
-      <c r="E10" s="153" t="s">
+      <c r="D10" s="166"/>
+      <c r="E10" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="140"/>
+      <c r="F10" s="200"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -4344,12 +4347,12 @@
       <c r="BN10" s="95"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="161"/>
+      <c r="A11" s="155"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="141"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="201"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4359,7 +4362,7 @@
       <c r="M11" s="19"/>
       <c r="N11" s="63"/>
       <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
+      <c r="P11" s="129"/>
       <c r="Q11" s="63"/>
       <c r="R11" s="63"/>
       <c r="S11" s="13"/>
@@ -4412,18 +4415,18 @@
       <c r="BN11" s="72"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="138">
+      <c r="A12" s="164">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="147" t="s">
+      <c r="C12" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="148"/>
-      <c r="E12" s="157" t="s">
+      <c r="D12" s="166"/>
+      <c r="E12" s="185" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="140"/>
+      <c r="F12" s="200"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4486,12 +4489,12 @@
       <c r="BN12" s="95"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="161"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="142"/>
+      <c r="C13" s="179"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="202"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4501,7 +4504,7 @@
       <c r="M13" s="45"/>
       <c r="N13" s="92"/>
       <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
+      <c r="P13" s="240"/>
       <c r="Q13" s="66"/>
       <c r="R13" s="66"/>
       <c r="S13" s="44"/>
@@ -4554,20 +4557,20 @@
       <c r="BN13" s="127"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="138">
+      <c r="A14" s="164">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="147" t="s">
+      <c r="C14" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="148"/>
-      <c r="E14" s="128" t="s">
+      <c r="D14" s="166"/>
+      <c r="E14" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="178"/>
+      <c r="F14" s="170"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4630,12 +4633,12 @@
       <c r="BN14" s="95"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="161"/>
+      <c r="A15" s="155"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="175"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="171"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4698,18 +4701,18 @@
       <c r="BN15" s="126"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="138">
+      <c r="A16" s="164">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="159"/>
-      <c r="E16" s="157" t="s">
+      <c r="D16" s="173"/>
+      <c r="E16" s="185" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="176"/>
+      <c r="F16" s="186"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4772,12 +4775,12 @@
       <c r="BN16" s="95"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="161"/>
+      <c r="A17" s="155"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="178"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="170"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4840,20 +4843,20 @@
       <c r="BN17" s="93"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="138">
+      <c r="A18" s="164">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="132" t="s">
+      <c r="C18" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="155" t="s">
+      <c r="D18" s="188"/>
+      <c r="E18" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="174"/>
+      <c r="F18" s="189"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4884,7 +4887,7 @@
       <c r="AH18" s="22"/>
       <c r="AI18" s="107"/>
       <c r="AJ18" s="73"/>
-      <c r="AK18" s="236"/>
+      <c r="AK18" s="130"/>
       <c r="AL18" s="6"/>
       <c r="AM18" s="6"/>
       <c r="AN18" s="15"/>
@@ -4913,15 +4916,15 @@
       <c r="BK18" s="6"/>
       <c r="BL18" s="6"/>
       <c r="BM18" s="60"/>
-      <c r="BN18" s="239"/>
+      <c r="BN18" s="133"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="161"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="175"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="171"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4984,18 +4987,18 @@
       <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="138">
+      <c r="A20" s="164">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="158" t="s">
+      <c r="C20" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="159"/>
-      <c r="E20" s="160" t="s">
+      <c r="D20" s="173"/>
+      <c r="E20" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="176"/>
+      <c r="F20" s="186"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5054,16 +5057,16 @@
       <c r="BJ20" s="19"/>
       <c r="BK20" s="7"/>
       <c r="BL20" s="7"/>
-      <c r="BM20" s="238"/>
+      <c r="BM20" s="132"/>
       <c r="BN20" s="95"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="161"/>
+      <c r="A21" s="155"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="175"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="171"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5126,18 +5129,18 @@
       <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="138">
+      <c r="A22" s="164">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="158" t="s">
+      <c r="C22" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="159"/>
-      <c r="E22" s="153" t="s">
+      <c r="D22" s="173"/>
+      <c r="E22" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="176"/>
+      <c r="F22" s="186"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5200,12 +5203,12 @@
       <c r="BN22" s="95"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="161"/>
+      <c r="A23" s="155"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="177"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="190"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5268,20 +5271,20 @@
       <c r="BN23" s="75"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="138">
+      <c r="A24" s="164">
         <v>11</v>
       </c>
-      <c r="B24" s="162" t="s">
+      <c r="B24" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="132" t="s">
+      <c r="C24" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="133"/>
-      <c r="E24" s="155" t="s">
+      <c r="D24" s="188"/>
+      <c r="E24" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="174"/>
+      <c r="F24" s="189"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5311,7 +5314,7 @@
       <c r="AG24" s="15"/>
       <c r="AH24" s="21"/>
       <c r="AI24" s="60"/>
-      <c r="AJ24" s="237"/>
+      <c r="AJ24" s="131"/>
       <c r="AK24" s="63"/>
       <c r="AL24" s="63"/>
       <c r="AM24" s="63"/>
@@ -5341,15 +5344,15 @@
       <c r="BK24" s="65"/>
       <c r="BL24" s="65"/>
       <c r="BM24" s="60"/>
-      <c r="BN24" s="239"/>
+      <c r="BN24" s="133"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="161"/>
-      <c r="B25" s="163"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="175"/>
+      <c r="A25" s="155"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="171"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5412,18 +5415,18 @@
       <c r="BN25" s="77"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="138">
+      <c r="A26" s="164">
         <v>12</v>
       </c>
-      <c r="B26" s="163"/>
-      <c r="C26" s="143" t="s">
+      <c r="B26" s="198"/>
+      <c r="C26" s="203" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="144"/>
-      <c r="E26" s="153" t="s">
+      <c r="D26" s="184"/>
+      <c r="E26" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="154"/>
+      <c r="F26" s="204"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5486,12 +5489,12 @@
       <c r="BN26" s="95"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="161"/>
-      <c r="B27" s="163"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="141"/>
+      <c r="A27" s="155"/>
+      <c r="B27" s="198"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="201"/>
       <c r="G27" s="51"/>
       <c r="H27" s="91"/>
       <c r="I27" s="7"/>
@@ -5554,18 +5557,18 @@
       <c r="BN27" s="77"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="138">
+      <c r="A28" s="164">
         <v>13</v>
       </c>
-      <c r="B28" s="163"/>
-      <c r="C28" s="158" t="s">
+      <c r="B28" s="198"/>
+      <c r="C28" s="172" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="159"/>
-      <c r="E28" s="160" t="s">
+      <c r="D28" s="173"/>
+      <c r="E28" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="140"/>
+      <c r="F28" s="200"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5628,12 +5631,12 @@
       <c r="BN28" s="95"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="161"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="141"/>
+      <c r="A29" s="155"/>
+      <c r="B29" s="198"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="201"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="91"/>
@@ -5696,18 +5699,18 @@
       <c r="BN29" s="77"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="138">
+      <c r="A30" s="164">
         <v>14</v>
       </c>
-      <c r="B30" s="163"/>
-      <c r="C30" s="158" t="s">
+      <c r="B30" s="198"/>
+      <c r="C30" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="159"/>
-      <c r="E30" s="160" t="s">
+      <c r="D30" s="173"/>
+      <c r="E30" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="140"/>
+      <c r="F30" s="200"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5770,12 +5773,12 @@
       <c r="BN30" s="95"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="161"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="141"/>
+      <c r="A31" s="155"/>
+      <c r="B31" s="198"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="201"/>
       <c r="G31" s="51"/>
       <c r="H31" s="91"/>
       <c r="I31" s="7"/>
@@ -5838,18 +5841,18 @@
       <c r="BN31" s="77"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="138">
+      <c r="A32" s="164">
         <v>15</v>
       </c>
-      <c r="B32" s="163"/>
-      <c r="C32" s="158" t="s">
+      <c r="B32" s="198"/>
+      <c r="C32" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="159"/>
-      <c r="E32" s="153" t="s">
+      <c r="D32" s="173"/>
+      <c r="E32" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="140"/>
+      <c r="F32" s="200"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5912,12 +5915,12 @@
       <c r="BN32" s="95"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="161"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="141"/>
+      <c r="A33" s="155"/>
+      <c r="B33" s="198"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="201"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5980,18 +5983,18 @@
       <c r="BN33" s="77"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="138">
+      <c r="A34" s="164">
         <v>16</v>
       </c>
-      <c r="B34" s="163"/>
-      <c r="C34" s="158" t="s">
+      <c r="B34" s="198"/>
+      <c r="C34" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="159"/>
-      <c r="E34" s="160" t="s">
+      <c r="D34" s="173"/>
+      <c r="E34" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="140"/>
+      <c r="F34" s="200"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -6054,12 +6057,12 @@
       <c r="BN34" s="95"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="161"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="141"/>
+      <c r="A35" s="155"/>
+      <c r="B35" s="198"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="201"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -6122,18 +6125,18 @@
       <c r="BN35" s="77"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="138">
+      <c r="A36" s="164">
         <v>17</v>
       </c>
-      <c r="B36" s="163"/>
+      <c r="B36" s="198"/>
       <c r="C36" s="112" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="113"/>
-      <c r="E36" s="160" t="s">
+      <c r="E36" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="140"/>
+      <c r="F36" s="200"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -6196,12 +6199,12 @@
       <c r="BN36" s="95"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="161"/>
-      <c r="B37" s="164"/>
+      <c r="A37" s="155"/>
+      <c r="B37" s="199"/>
       <c r="C37" s="114"/>
       <c r="D37" s="115"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="142"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="202"/>
       <c r="G37" s="54"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -6264,20 +6267,20 @@
       <c r="BN37" s="75"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="138">
+      <c r="A38" s="164">
         <v>20</v>
       </c>
       <c r="B38" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="165" t="s">
+      <c r="C38" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="166"/>
-      <c r="E38" s="155" t="s">
+      <c r="D38" s="192"/>
+      <c r="E38" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="169"/>
+      <c r="F38" s="195"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -6341,12 +6344,12 @@
       <c r="BO38" s="97"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="161"/>
+      <c r="A39" s="155"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="168"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="170"/>
+      <c r="C39" s="193"/>
+      <c r="D39" s="194"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="196"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6410,20 +6413,20 @@
       <c r="BO39" s="97"/>
     </row>
     <row r="40" spans="1:67">
-      <c r="A40" s="138">
+      <c r="A40" s="164">
         <v>21</v>
       </c>
-      <c r="B40" s="130" t="s">
+      <c r="B40" s="206" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="132" t="s">
+      <c r="C40" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="133"/>
-      <c r="E40" s="128" t="s">
+      <c r="D40" s="188"/>
+      <c r="E40" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="136"/>
+      <c r="F40" s="210"/>
       <c r="G40" s="38"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6487,12 +6490,12 @@
       <c r="BO40" s="97"/>
     </row>
     <row r="41" spans="1:67" ht="10.199999999999999" thickBot="1">
-      <c r="A41" s="139"/>
-      <c r="B41" s="131"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="137"/>
+      <c r="A41" s="212"/>
+      <c r="B41" s="207"/>
+      <c r="C41" s="208"/>
+      <c r="D41" s="209"/>
+      <c r="E41" s="205"/>
+      <c r="F41" s="211"/>
       <c r="G41" s="39"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -6577,52 +6580,23 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C38:D39"/>
     <mergeCell ref="E38:E39"/>
@@ -6639,28 +6613,57 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="B24:B37"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -6704,54 +6707,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="196" t="s">
+      <c r="C1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="197"/>
-      <c r="E1" s="202" t="s">
+      <c r="D1" s="144"/>
+      <c r="E1" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="204" t="s">
+      <c r="F1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="187"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="188"/>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="188"/>
-      <c r="AD1" s="189"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="136"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="191"/>
-      <c r="B2" s="194"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="205"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="152"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -6826,12 +6829,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="192"/>
-      <c r="B3" s="195"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="206"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="153"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -6906,20 +6909,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="182">
+      <c r="A4" s="154">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="183" t="s">
+      <c r="C4" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="184"/>
-      <c r="E4" s="213" t="s">
+      <c r="D4" s="157"/>
+      <c r="E4" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="185"/>
+      <c r="F4" s="162"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -6942,20 +6945,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="214" t="s">
+      <c r="AC4" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="208" t="s">
+      <c r="AD4" s="227" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="161"/>
+      <c r="A5" s="155"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="186"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="163"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -6978,22 +6981,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="215"/>
-      <c r="AD5" s="209"/>
+      <c r="AC5" s="234"/>
+      <c r="AD5" s="228"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="138">
+      <c r="A6" s="164">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="159"/>
-      <c r="E6" s="211" t="s">
+      <c r="D6" s="173"/>
+      <c r="E6" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="180"/>
+      <c r="F6" s="177"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7016,16 +7019,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="215"/>
-      <c r="AD6" s="209"/>
+      <c r="AC6" s="234"/>
+      <c r="AD6" s="228"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="161"/>
+      <c r="A7" s="155"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="181"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="178"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7048,24 +7051,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="215"/>
-      <c r="AD7" s="209"/>
+      <c r="AC7" s="234"/>
+      <c r="AD7" s="228"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="217">
+      <c r="A8" s="216">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="219" t="s">
+      <c r="C8" s="236" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="220"/>
-      <c r="E8" s="221" t="s">
+      <c r="D8" s="237"/>
+      <c r="E8" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="174"/>
+      <c r="F8" s="189"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7088,16 +7091,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="215"/>
-      <c r="AD8" s="209"/>
+      <c r="AC8" s="234"/>
+      <c r="AD8" s="228"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="218"/>
+      <c r="A9" s="217"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="152"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="180"/>
       <c r="E9" s="222"/>
-      <c r="F9" s="177"/>
+      <c r="F9" s="190"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7120,24 +7123,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="215"/>
-      <c r="AD9" s="209"/>
+      <c r="AC9" s="234"/>
+      <c r="AD9" s="228"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="223">
+      <c r="A10" s="225">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="148"/>
+      <c r="D10" s="166"/>
       <c r="E10" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="178"/>
+      <c r="F10" s="170"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7160,16 +7163,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="215"/>
-      <c r="AD10" s="209"/>
+      <c r="AC10" s="234"/>
+      <c r="AD10" s="228"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="218"/>
+      <c r="A11" s="217"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="225"/>
-      <c r="F11" s="175"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="220"/>
+      <c r="F11" s="171"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7192,22 +7195,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="215"/>
-      <c r="AD11" s="209"/>
+      <c r="AC11" s="234"/>
+      <c r="AD11" s="228"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="217">
+      <c r="A12" s="216">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="159"/>
+      <c r="D12" s="173"/>
       <c r="E12" s="226" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="176"/>
+      <c r="F12" s="186"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7230,16 +7233,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="215"/>
-      <c r="AD12" s="209"/>
+      <c r="AC12" s="234"/>
+      <c r="AD12" s="228"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="223"/>
+      <c r="A13" s="225"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="144"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="184"/>
       <c r="E13" s="224"/>
-      <c r="F13" s="178"/>
+      <c r="F13" s="170"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7262,24 +7265,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="215"/>
-      <c r="AD13" s="209"/>
+      <c r="AC13" s="234"/>
+      <c r="AD13" s="228"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="227">
+      <c r="A14" s="221">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="133"/>
-      <c r="E14" s="228" t="s">
+      <c r="D14" s="188"/>
+      <c r="E14" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="174"/>
+      <c r="F14" s="189"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7302,16 +7305,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="215"/>
-      <c r="AD14" s="209"/>
+      <c r="AC14" s="234"/>
+      <c r="AD14" s="228"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="227"/>
+      <c r="A15" s="221"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="175"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="220"/>
+      <c r="F15" s="171"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7334,22 +7337,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="215"/>
-      <c r="AD15" s="209"/>
+      <c r="AC15" s="234"/>
+      <c r="AD15" s="228"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="227">
+      <c r="A16" s="221">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="159"/>
-      <c r="E16" s="229" t="s">
+      <c r="D16" s="173"/>
+      <c r="E16" s="219" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="176"/>
+      <c r="F16" s="186"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7372,16 +7375,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="215"/>
-      <c r="AD16" s="209"/>
+      <c r="AC16" s="234"/>
+      <c r="AD16" s="228"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="227"/>
+      <c r="A17" s="221"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="225"/>
-      <c r="F17" s="175"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="220"/>
+      <c r="F17" s="171"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7404,22 +7407,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="215"/>
-      <c r="AD17" s="209"/>
+      <c r="AC17" s="234"/>
+      <c r="AD17" s="228"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="227">
+      <c r="A18" s="221">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="159"/>
-      <c r="E18" s="229" t="s">
+      <c r="D18" s="173"/>
+      <c r="E18" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="176"/>
+      <c r="F18" s="186"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7442,16 +7445,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="215"/>
-      <c r="AD18" s="209"/>
+      <c r="AC18" s="234"/>
+      <c r="AD18" s="228"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="227"/>
+      <c r="A19" s="221"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="173"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="175"/>
       <c r="E19" s="222"/>
-      <c r="F19" s="177"/>
+      <c r="F19" s="190"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7474,24 +7477,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="215"/>
-      <c r="AD19" s="209"/>
+      <c r="AC19" s="234"/>
+      <c r="AD19" s="228"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="217">
+      <c r="A20" s="216">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="133"/>
-      <c r="E20" s="228" t="s">
+      <c r="D20" s="188"/>
+      <c r="E20" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="174"/>
+      <c r="F20" s="189"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7514,18 +7517,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="215"/>
-      <c r="AD20" s="209"/>
+      <c r="AC20" s="234"/>
+      <c r="AD20" s="228"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="218"/>
+      <c r="A21" s="217"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="225"/>
-      <c r="F21" s="175"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="171"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7548,22 +7551,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="215"/>
-      <c r="AD21" s="209"/>
+      <c r="AC21" s="234"/>
+      <c r="AD21" s="228"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="217">
+      <c r="A22" s="216">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="230" t="s">
+      <c r="C22" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="159"/>
-      <c r="E22" s="229" t="s">
+      <c r="D22" s="173"/>
+      <c r="E22" s="219" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="176"/>
+      <c r="F22" s="186"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -7586,16 +7589,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="215"/>
-      <c r="AD22" s="209"/>
+      <c r="AC22" s="234"/>
+      <c r="AD22" s="228"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="218"/>
+      <c r="A23" s="217"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="225"/>
-      <c r="F23" s="175"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="220"/>
+      <c r="F23" s="171"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7618,22 +7621,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="215"/>
-      <c r="AD23" s="209"/>
+      <c r="AC23" s="234"/>
+      <c r="AD23" s="228"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="217">
+      <c r="A24" s="216">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="230" t="s">
+      <c r="C24" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="159"/>
-      <c r="E24" s="229" t="s">
+      <c r="D24" s="173"/>
+      <c r="E24" s="219" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="176"/>
+      <c r="F24" s="186"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -7656,16 +7659,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="215"/>
-      <c r="AD24" s="209"/>
+      <c r="AC24" s="234"/>
+      <c r="AD24" s="228"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="218"/>
+      <c r="A25" s="217"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="225"/>
-      <c r="F25" s="177"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="220"/>
+      <c r="F25" s="190"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7688,24 +7691,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="215"/>
-      <c r="AD25" s="209"/>
+      <c r="AC25" s="234"/>
+      <c r="AD25" s="228"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="138">
+      <c r="A26" s="164">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="165" t="s">
+      <c r="C26" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="166"/>
-      <c r="E26" s="231" t="s">
+      <c r="D26" s="192"/>
+      <c r="E26" s="213" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="169"/>
+      <c r="F26" s="195"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7728,16 +7731,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="215"/>
-      <c r="AD26" s="209"/>
+      <c r="AC26" s="234"/>
+      <c r="AD26" s="228"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="161"/>
+      <c r="A27" s="155"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="232"/>
-      <c r="F27" s="170"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="196"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7760,24 +7763,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="215"/>
-      <c r="AD27" s="209"/>
+      <c r="AC27" s="234"/>
+      <c r="AD27" s="228"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="138">
+      <c r="A28" s="164">
         <v>14</v>
       </c>
-      <c r="B28" s="130" t="s">
+      <c r="B28" s="206" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="132" t="s">
+      <c r="C28" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="130" t="s">
+      <c r="D28" s="188"/>
+      <c r="E28" s="206" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="136"/>
+      <c r="F28" s="210"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7800,16 +7803,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="215"/>
-      <c r="AD28" s="209"/>
+      <c r="AC28" s="234"/>
+      <c r="AD28" s="228"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="233"/>
-      <c r="B29" s="131"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="137"/>
+      <c r="A29" s="215"/>
+      <c r="B29" s="207"/>
+      <c r="C29" s="208"/>
+      <c r="D29" s="209"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="211"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7832,8 +7835,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="216"/>
-      <c r="AD29" s="210"/>
+      <c r="AC29" s="235"/>
+      <c r="AD29" s="229"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -7853,45 +7856,12 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -7908,12 +7878,45 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/099-納品物/000-要件定義/003-WBS-納品版.xlsx
+++ b/099-納品物/000-要件定義/003-WBS-納品版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\099-納品物\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FFA84F-DC1D-4781-B1F2-F09FAD67B9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0661CAB-A5DC-45F2-924E-C2E486A3AFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2124,6 +2124,9 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2295,6 +2298,21 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2313,21 +2331,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2441,9 +2444,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3309,7 +3309,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3326,94 +3326,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="C1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="149" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="151" t="s">
+      <c r="F1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="134">
+      <c r="G1" s="135">
         <v>45536</v>
       </c>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="135"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="135"/>
-      <c r="AJ1" s="136"/>
-      <c r="AK1" s="134">
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="136"/>
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="136"/>
+      <c r="AH1" s="136"/>
+      <c r="AI1" s="136"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="135">
         <v>45566</v>
       </c>
-      <c r="AL1" s="135"/>
-      <c r="AM1" s="135"/>
-      <c r="AN1" s="135"/>
-      <c r="AO1" s="135"/>
-      <c r="AP1" s="135"/>
-      <c r="AQ1" s="135"/>
-      <c r="AR1" s="135"/>
-      <c r="AS1" s="135"/>
-      <c r="AT1" s="135"/>
-      <c r="AU1" s="135"/>
-      <c r="AV1" s="135"/>
-      <c r="AW1" s="135"/>
-      <c r="AX1" s="135"/>
-      <c r="AY1" s="135"/>
-      <c r="AZ1" s="135"/>
-      <c r="BA1" s="135"/>
-      <c r="BB1" s="135"/>
-      <c r="BC1" s="135"/>
-      <c r="BD1" s="135"/>
-      <c r="BE1" s="135"/>
-      <c r="BF1" s="135"/>
-      <c r="BG1" s="135"/>
-      <c r="BH1" s="135"/>
-      <c r="BI1" s="135"/>
-      <c r="BJ1" s="135"/>
-      <c r="BK1" s="135"/>
-      <c r="BL1" s="135"/>
-      <c r="BM1" s="135"/>
-      <c r="BN1" s="136"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="136"/>
+      <c r="AN1" s="136"/>
+      <c r="AO1" s="136"/>
+      <c r="AP1" s="136"/>
+      <c r="AQ1" s="136"/>
+      <c r="AR1" s="136"/>
+      <c r="AS1" s="136"/>
+      <c r="AT1" s="136"/>
+      <c r="AU1" s="136"/>
+      <c r="AV1" s="136"/>
+      <c r="AW1" s="136"/>
+      <c r="AX1" s="136"/>
+      <c r="AY1" s="136"/>
+      <c r="AZ1" s="136"/>
+      <c r="BA1" s="136"/>
+      <c r="BB1" s="136"/>
+      <c r="BC1" s="136"/>
+      <c r="BD1" s="136"/>
+      <c r="BE1" s="136"/>
+      <c r="BF1" s="136"/>
+      <c r="BG1" s="136"/>
+      <c r="BH1" s="136"/>
+      <c r="BI1" s="136"/>
+      <c r="BJ1" s="136"/>
+      <c r="BK1" s="136"/>
+      <c r="BL1" s="136"/>
+      <c r="BM1" s="136"/>
+      <c r="BN1" s="137"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="138"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="152"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3655,12 +3655,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="139"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="153"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="154"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3843,20 +3843,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="154">
+      <c r="A4" s="155">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="157"/>
-      <c r="E4" s="160" t="s">
+      <c r="D4" s="158"/>
+      <c r="E4" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="162"/>
+      <c r="F4" s="163"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -3919,12 +3919,12 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="155"/>
+      <c r="A5" s="156"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="163"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="164"/>
       <c r="G5" s="122"/>
       <c r="H5" s="100"/>
       <c r="I5" s="123"/>
@@ -3987,18 +3987,18 @@
       <c r="BN5" s="119"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="164">
+      <c r="A6" s="165">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="173"/>
-      <c r="E6" s="176" t="s">
+      <c r="D6" s="174"/>
+      <c r="E6" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="177"/>
+      <c r="F6" s="178"/>
       <c r="G6" s="51"/>
       <c r="H6" s="62"/>
       <c r="I6" s="118"/>
@@ -4061,12 +4061,12 @@
       <c r="BN6" s="72"/>
     </row>
     <row r="7" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A7" s="155"/>
+      <c r="A7" s="156"/>
       <c r="B7" s="102"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="178"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="179"/>
       <c r="G7" s="101"/>
       <c r="H7" s="68"/>
       <c r="I7" s="96"/>
@@ -4129,20 +4129,20 @@
       <c r="BN7" s="72"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="164">
+      <c r="A8" s="165">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="166"/>
-      <c r="E8" s="160" t="s">
+      <c r="D8" s="167"/>
+      <c r="E8" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="204"/>
+      <c r="F8" s="205"/>
       <c r="G8" s="50"/>
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
@@ -4205,12 +4205,12 @@
       <c r="BN8" s="95"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="155"/>
+      <c r="A9" s="156"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="201"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="196"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -4273,18 +4273,18 @@
       <c r="BN9" s="72"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="164">
+      <c r="A10" s="165">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="165" t="s">
+      <c r="C10" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="166"/>
-      <c r="E10" s="182" t="s">
+      <c r="D10" s="167"/>
+      <c r="E10" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="200"/>
+      <c r="F10" s="195"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -4347,12 +4347,12 @@
       <c r="BN10" s="95"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="155"/>
+      <c r="A11" s="156"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="201"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="196"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4415,18 +4415,18 @@
       <c r="BN11" s="72"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="164">
+      <c r="A12" s="165">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="165" t="s">
+      <c r="C12" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="166"/>
-      <c r="E12" s="185" t="s">
+      <c r="D12" s="167"/>
+      <c r="E12" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="200"/>
+      <c r="F12" s="195"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4489,12 +4489,12 @@
       <c r="BN12" s="95"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="155"/>
+      <c r="A13" s="156"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="182"/>
-      <c r="F13" s="202"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="203"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4504,9 +4504,9 @@
       <c r="M13" s="45"/>
       <c r="N13" s="92"/>
       <c r="O13" s="66"/>
-      <c r="P13" s="240"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
       <c r="S13" s="44"/>
       <c r="T13" s="45"/>
       <c r="U13" s="45"/>
@@ -4557,20 +4557,20 @@
       <c r="BN13" s="127"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="164">
+      <c r="A14" s="165">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="165" t="s">
+      <c r="C14" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="166"/>
-      <c r="E14" s="161" t="s">
+      <c r="D14" s="167"/>
+      <c r="E14" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="170"/>
+      <c r="F14" s="171"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4633,12 +4633,12 @@
       <c r="BN14" s="95"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="155"/>
+      <c r="A15" s="156"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="171"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="172"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4701,18 +4701,18 @@
       <c r="BN15" s="126"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="164">
+      <c r="A16" s="165">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="173"/>
-      <c r="E16" s="185" t="s">
+      <c r="D16" s="174"/>
+      <c r="E16" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="186"/>
+      <c r="F16" s="187"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4775,12 +4775,12 @@
       <c r="BN16" s="95"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="155"/>
+      <c r="A17" s="156"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="170"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="171"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4843,20 +4843,20 @@
       <c r="BN17" s="93"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="164">
+      <c r="A18" s="165">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="187" t="s">
+      <c r="C18" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="188"/>
-      <c r="E18" s="160" t="s">
+      <c r="D18" s="189"/>
+      <c r="E18" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="189"/>
+      <c r="F18" s="190"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4919,12 +4919,12 @@
       <c r="BN18" s="133"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="155"/>
+      <c r="A19" s="156"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="171"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="172"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4987,18 +4987,18 @@
       <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="164">
+      <c r="A20" s="165">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="172" t="s">
+      <c r="C20" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="173"/>
-      <c r="E20" s="176" t="s">
+      <c r="D20" s="174"/>
+      <c r="E20" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="186"/>
+      <c r="F20" s="187"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5061,12 +5061,12 @@
       <c r="BN20" s="95"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="155"/>
+      <c r="A21" s="156"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="171"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="172"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5129,18 +5129,18 @@
       <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="164">
+      <c r="A22" s="165">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="172" t="s">
+      <c r="C22" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="173"/>
-      <c r="E22" s="182" t="s">
+      <c r="D22" s="174"/>
+      <c r="E22" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="186"/>
+      <c r="F22" s="187"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5203,12 +5203,12 @@
       <c r="BN22" s="95"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="155"/>
+      <c r="A23" s="156"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="190"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="191"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5271,20 +5271,20 @@
       <c r="BN23" s="75"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="164">
+      <c r="A24" s="165">
         <v>11</v>
       </c>
-      <c r="B24" s="197" t="s">
+      <c r="B24" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="187" t="s">
+      <c r="C24" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="160" t="s">
+      <c r="D24" s="189"/>
+      <c r="E24" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="189"/>
+      <c r="F24" s="190"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5347,12 +5347,12 @@
       <c r="BN24" s="133"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="155"/>
-      <c r="B25" s="198"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="171"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="193"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="172"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5415,18 +5415,18 @@
       <c r="BN25" s="77"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="164">
+      <c r="A26" s="165">
         <v>12</v>
       </c>
-      <c r="B26" s="198"/>
-      <c r="C26" s="203" t="s">
+      <c r="B26" s="193"/>
+      <c r="C26" s="204" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="184"/>
-      <c r="E26" s="182" t="s">
+      <c r="D26" s="185"/>
+      <c r="E26" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="204"/>
+      <c r="F26" s="205"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5489,12 +5489,12 @@
       <c r="BN26" s="95"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="155"/>
-      <c r="B27" s="198"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="201"/>
+      <c r="A27" s="156"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="196"/>
       <c r="G27" s="51"/>
       <c r="H27" s="91"/>
       <c r="I27" s="7"/>
@@ -5557,18 +5557,18 @@
       <c r="BN27" s="77"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="164">
+      <c r="A28" s="165">
         <v>13</v>
       </c>
-      <c r="B28" s="198"/>
-      <c r="C28" s="172" t="s">
+      <c r="B28" s="193"/>
+      <c r="C28" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="173"/>
-      <c r="E28" s="176" t="s">
+      <c r="D28" s="174"/>
+      <c r="E28" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="200"/>
+      <c r="F28" s="195"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5631,12 +5631,12 @@
       <c r="BN28" s="95"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="155"/>
-      <c r="B29" s="198"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="201"/>
+      <c r="A29" s="156"/>
+      <c r="B29" s="193"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="196"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="91"/>
@@ -5699,18 +5699,18 @@
       <c r="BN29" s="77"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="164">
+      <c r="A30" s="165">
         <v>14</v>
       </c>
-      <c r="B30" s="198"/>
-      <c r="C30" s="172" t="s">
+      <c r="B30" s="193"/>
+      <c r="C30" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="173"/>
-      <c r="E30" s="176" t="s">
+      <c r="D30" s="174"/>
+      <c r="E30" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="200"/>
+      <c r="F30" s="195"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5773,12 +5773,12 @@
       <c r="BN30" s="95"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="155"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="159"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="201"/>
+      <c r="A31" s="156"/>
+      <c r="B31" s="193"/>
+      <c r="C31" s="159"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="196"/>
       <c r="G31" s="51"/>
       <c r="H31" s="91"/>
       <c r="I31" s="7"/>
@@ -5841,18 +5841,18 @@
       <c r="BN31" s="77"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="164">
+      <c r="A32" s="165">
         <v>15</v>
       </c>
-      <c r="B32" s="198"/>
-      <c r="C32" s="172" t="s">
+      <c r="B32" s="193"/>
+      <c r="C32" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="173"/>
-      <c r="E32" s="182" t="s">
+      <c r="D32" s="174"/>
+      <c r="E32" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="200"/>
+      <c r="F32" s="195"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5915,12 +5915,12 @@
       <c r="BN32" s="95"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="155"/>
-      <c r="B33" s="198"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="201"/>
+      <c r="A33" s="156"/>
+      <c r="B33" s="193"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="196"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5983,18 +5983,18 @@
       <c r="BN33" s="77"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="164">
+      <c r="A34" s="165">
         <v>16</v>
       </c>
-      <c r="B34" s="198"/>
-      <c r="C34" s="172" t="s">
+      <c r="B34" s="193"/>
+      <c r="C34" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="173"/>
-      <c r="E34" s="176" t="s">
+      <c r="D34" s="174"/>
+      <c r="E34" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="200"/>
+      <c r="F34" s="195"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -6057,12 +6057,12 @@
       <c r="BN34" s="95"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="155"/>
-      <c r="B35" s="198"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="201"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="193"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="196"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -6125,18 +6125,18 @@
       <c r="BN35" s="77"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="164">
+      <c r="A36" s="165">
         <v>17</v>
       </c>
-      <c r="B36" s="198"/>
+      <c r="B36" s="193"/>
       <c r="C36" s="112" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="113"/>
-      <c r="E36" s="176" t="s">
+      <c r="E36" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="200"/>
+      <c r="F36" s="195"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -6199,12 +6199,12 @@
       <c r="BN36" s="95"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="155"/>
-      <c r="B37" s="199"/>
+      <c r="A37" s="156"/>
+      <c r="B37" s="194"/>
       <c r="C37" s="114"/>
       <c r="D37" s="115"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="202"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="203"/>
       <c r="G37" s="54"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -6267,20 +6267,20 @@
       <c r="BN37" s="75"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="164">
+      <c r="A38" s="165">
         <v>20</v>
       </c>
       <c r="B38" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="191" t="s">
+      <c r="C38" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="192"/>
-      <c r="E38" s="160" t="s">
+      <c r="D38" s="198"/>
+      <c r="E38" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="195"/>
+      <c r="F38" s="201"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -6344,12 +6344,12 @@
       <c r="BO38" s="97"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="155"/>
+      <c r="A39" s="156"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="193"/>
-      <c r="D39" s="194"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="196"/>
+      <c r="C39" s="199"/>
+      <c r="D39" s="200"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="202"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6413,20 +6413,20 @@
       <c r="BO39" s="97"/>
     </row>
     <row r="40" spans="1:67">
-      <c r="A40" s="164">
+      <c r="A40" s="165">
         <v>21</v>
       </c>
-      <c r="B40" s="206" t="s">
+      <c r="B40" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="187" t="s">
+      <c r="C40" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="188"/>
-      <c r="E40" s="161" t="s">
+      <c r="D40" s="189"/>
+      <c r="E40" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="210"/>
+      <c r="F40" s="211"/>
       <c r="G40" s="38"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6490,12 +6490,12 @@
       <c r="BO40" s="97"/>
     </row>
     <row r="41" spans="1:67" ht="10.199999999999999" thickBot="1">
-      <c r="A41" s="212"/>
-      <c r="B41" s="207"/>
-      <c r="C41" s="208"/>
-      <c r="D41" s="209"/>
-      <c r="E41" s="205"/>
-      <c r="F41" s="211"/>
+      <c r="A41" s="213"/>
+      <c r="B41" s="208"/>
+      <c r="C41" s="209"/>
+      <c r="D41" s="210"/>
+      <c r="E41" s="206"/>
+      <c r="F41" s="212"/>
       <c r="G41" s="39"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -6707,54 +6707,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="C1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="149" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="151" t="s">
+      <c r="F1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="134"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="136"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="137"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="138"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="152"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -6829,12 +6829,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="139"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="153"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="154"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -6909,20 +6909,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="154">
+      <c r="A4" s="155">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="157"/>
-      <c r="E4" s="232" t="s">
+      <c r="D4" s="158"/>
+      <c r="E4" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="162"/>
+      <c r="F4" s="163"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -6945,20 +6945,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="233" t="s">
+      <c r="AC4" s="234" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="227" t="s">
+      <c r="AD4" s="228" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="155"/>
+      <c r="A5" s="156"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="163"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="164"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -6981,22 +6981,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="234"/>
-      <c r="AD5" s="228"/>
+      <c r="AC5" s="235"/>
+      <c r="AD5" s="229"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="164">
+      <c r="A6" s="165">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="173"/>
-      <c r="E6" s="230" t="s">
+      <c r="D6" s="174"/>
+      <c r="E6" s="231" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="177"/>
+      <c r="F6" s="178"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7019,16 +7019,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="234"/>
-      <c r="AD6" s="228"/>
+      <c r="AC6" s="235"/>
+      <c r="AD6" s="229"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="155"/>
+      <c r="A7" s="156"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="178"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="179"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7051,24 +7051,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="234"/>
-      <c r="AD7" s="228"/>
+      <c r="AC7" s="235"/>
+      <c r="AD7" s="229"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="216">
+      <c r="A8" s="217">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="236" t="s">
+      <c r="C8" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="237"/>
-      <c r="E8" s="238" t="s">
+      <c r="D8" s="238"/>
+      <c r="E8" s="239" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="189"/>
+      <c r="F8" s="190"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7091,16 +7091,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="234"/>
-      <c r="AD8" s="228"/>
+      <c r="AC8" s="235"/>
+      <c r="AD8" s="229"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="217"/>
+      <c r="A9" s="218"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="190"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="191"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7123,24 +7123,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="234"/>
-      <c r="AD9" s="228"/>
+      <c r="AC9" s="235"/>
+      <c r="AD9" s="229"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="225">
+      <c r="A10" s="226">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="165" t="s">
+      <c r="C10" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="166"/>
-      <c r="E10" s="224" t="s">
+      <c r="D10" s="167"/>
+      <c r="E10" s="225" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="170"/>
+      <c r="F10" s="171"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7163,16 +7163,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="234"/>
-      <c r="AD10" s="228"/>
+      <c r="AC10" s="235"/>
+      <c r="AD10" s="229"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="217"/>
+      <c r="A11" s="218"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="220"/>
-      <c r="F11" s="171"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="172"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7195,22 +7195,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="234"/>
-      <c r="AD11" s="228"/>
+      <c r="AC11" s="235"/>
+      <c r="AD11" s="229"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="216">
+      <c r="A12" s="217">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="173"/>
-      <c r="E12" s="226" t="s">
+      <c r="D12" s="174"/>
+      <c r="E12" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="186"/>
+      <c r="F12" s="187"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7233,16 +7233,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="234"/>
-      <c r="AD12" s="228"/>
+      <c r="AC12" s="235"/>
+      <c r="AD12" s="229"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="225"/>
+      <c r="A13" s="226"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="224"/>
-      <c r="F13" s="170"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="225"/>
+      <c r="F13" s="171"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7265,24 +7265,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="234"/>
-      <c r="AD13" s="228"/>
+      <c r="AC13" s="235"/>
+      <c r="AD13" s="229"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="221">
+      <c r="A14" s="222">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="187" t="s">
+      <c r="C14" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="188"/>
-      <c r="E14" s="223" t="s">
+      <c r="D14" s="189"/>
+      <c r="E14" s="224" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="189"/>
+      <c r="F14" s="190"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7305,16 +7305,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="234"/>
-      <c r="AD14" s="228"/>
+      <c r="AC14" s="235"/>
+      <c r="AD14" s="229"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="221"/>
+      <c r="A15" s="222"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="220"/>
-      <c r="F15" s="171"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="172"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7337,22 +7337,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="234"/>
-      <c r="AD15" s="228"/>
+      <c r="AC15" s="235"/>
+      <c r="AD15" s="229"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="221">
+      <c r="A16" s="222">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="173"/>
-      <c r="E16" s="219" t="s">
+      <c r="D16" s="174"/>
+      <c r="E16" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="186"/>
+      <c r="F16" s="187"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7375,16 +7375,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="234"/>
-      <c r="AD16" s="228"/>
+      <c r="AC16" s="235"/>
+      <c r="AD16" s="229"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="221"/>
+      <c r="A17" s="222"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="171"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="172"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7407,22 +7407,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="234"/>
-      <c r="AD17" s="228"/>
+      <c r="AC17" s="235"/>
+      <c r="AD17" s="229"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="221">
+      <c r="A18" s="222">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="172" t="s">
+      <c r="C18" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="173"/>
-      <c r="E18" s="219" t="s">
+      <c r="D18" s="174"/>
+      <c r="E18" s="220" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="186"/>
+      <c r="F18" s="187"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7445,16 +7445,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="234"/>
-      <c r="AD18" s="228"/>
+      <c r="AC18" s="235"/>
+      <c r="AD18" s="229"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="221"/>
+      <c r="A19" s="222"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="222"/>
-      <c r="F19" s="190"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="191"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7477,24 +7477,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="234"/>
-      <c r="AD19" s="228"/>
+      <c r="AC19" s="235"/>
+      <c r="AD19" s="229"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="216">
+      <c r="A20" s="217">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="187" t="s">
+      <c r="C20" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="188"/>
-      <c r="E20" s="223" t="s">
+      <c r="D20" s="189"/>
+      <c r="E20" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="189"/>
+      <c r="F20" s="190"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7517,18 +7517,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="234"/>
-      <c r="AD20" s="228"/>
+      <c r="AC20" s="235"/>
+      <c r="AD20" s="229"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="217"/>
+      <c r="A21" s="218"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="158"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="171"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="172"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7551,22 +7551,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="234"/>
-      <c r="AD21" s="228"/>
+      <c r="AC21" s="235"/>
+      <c r="AD21" s="229"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="216">
+      <c r="A22" s="217">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="218" t="s">
+      <c r="C22" s="219" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="173"/>
-      <c r="E22" s="219" t="s">
+      <c r="D22" s="174"/>
+      <c r="E22" s="220" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="186"/>
+      <c r="F22" s="187"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -7589,16 +7589,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="234"/>
-      <c r="AD22" s="228"/>
+      <c r="AC22" s="235"/>
+      <c r="AD22" s="229"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="217"/>
+      <c r="A23" s="218"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="220"/>
-      <c r="F23" s="171"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="221"/>
+      <c r="F23" s="172"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7621,22 +7621,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="234"/>
-      <c r="AD23" s="228"/>
+      <c r="AC23" s="235"/>
+      <c r="AD23" s="229"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="216">
+      <c r="A24" s="217">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="218" t="s">
+      <c r="C24" s="219" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="173"/>
-      <c r="E24" s="219" t="s">
+      <c r="D24" s="174"/>
+      <c r="E24" s="220" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="186"/>
+      <c r="F24" s="187"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -7659,16 +7659,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="234"/>
-      <c r="AD24" s="228"/>
+      <c r="AC24" s="235"/>
+      <c r="AD24" s="229"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="217"/>
+      <c r="A25" s="218"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="220"/>
-      <c r="F25" s="190"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="221"/>
+      <c r="F25" s="191"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7691,24 +7691,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="234"/>
-      <c r="AD25" s="228"/>
+      <c r="AC25" s="235"/>
+      <c r="AD25" s="229"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="164">
+      <c r="A26" s="165">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="191" t="s">
+      <c r="C26" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="192"/>
-      <c r="E26" s="213" t="s">
+      <c r="D26" s="198"/>
+      <c r="E26" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="195"/>
+      <c r="F26" s="201"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7731,16 +7731,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="234"/>
-      <c r="AD26" s="228"/>
+      <c r="AC26" s="235"/>
+      <c r="AD26" s="229"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="155"/>
+      <c r="A27" s="156"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="194"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="196"/>
+      <c r="C27" s="199"/>
+      <c r="D27" s="200"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="202"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7763,24 +7763,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="234"/>
-      <c r="AD27" s="228"/>
+      <c r="AC27" s="235"/>
+      <c r="AD27" s="229"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="164">
+      <c r="A28" s="165">
         <v>14</v>
       </c>
-      <c r="B28" s="206" t="s">
+      <c r="B28" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="187" t="s">
+      <c r="C28" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="188"/>
-      <c r="E28" s="206" t="s">
+      <c r="D28" s="189"/>
+      <c r="E28" s="207" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="210"/>
+      <c r="F28" s="211"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7803,16 +7803,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="234"/>
-      <c r="AD28" s="228"/>
+      <c r="AC28" s="235"/>
+      <c r="AD28" s="229"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="215"/>
-      <c r="B29" s="207"/>
-      <c r="C29" s="208"/>
-      <c r="D29" s="209"/>
-      <c r="E29" s="207"/>
-      <c r="F29" s="211"/>
+      <c r="A29" s="216"/>
+      <c r="B29" s="208"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="208"/>
+      <c r="F29" s="212"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7835,8 +7835,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="235"/>
-      <c r="AD29" s="229"/>
+      <c r="AC29" s="236"/>
+      <c r="AD29" s="230"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>

--- a/099-納品物/000-要件定義/003-WBS-納品版.xlsx
+++ b/099-納品物/000-要件定義/003-WBS-納品版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\099-納品物\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0661CAB-A5DC-45F2-924E-C2E486A3AFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F57858-F72D-43B3-B7ED-CFE5609EDAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="13" r:id="rId1"/>
@@ -2127,6 +2127,183 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2187,182 +2364,77 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2372,78 +2444,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3306,10 +3306,10 @@
   <dimension ref="A1:BO46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="R11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16:M17"/>
+      <selection pane="bottomRight" activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3326,94 +3326,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="144" t="s">
+      <c r="C1" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="150" t="s">
+      <c r="D1" s="204"/>
+      <c r="E1" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="152" t="s">
+      <c r="F1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="135">
+      <c r="G1" s="194">
         <v>45536</v>
       </c>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="136"/>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
-      <c r="W1" s="136"/>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="136"/>
-      <c r="AB1" s="136"/>
-      <c r="AC1" s="136"/>
-      <c r="AD1" s="136"/>
-      <c r="AE1" s="136"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="136"/>
-      <c r="AH1" s="136"/>
-      <c r="AI1" s="136"/>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="135">
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="195"/>
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
+      <c r="V1" s="195"/>
+      <c r="W1" s="195"/>
+      <c r="X1" s="195"/>
+      <c r="Y1" s="195"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="195"/>
+      <c r="AB1" s="195"/>
+      <c r="AC1" s="195"/>
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="195"/>
+      <c r="AG1" s="195"/>
+      <c r="AH1" s="195"/>
+      <c r="AI1" s="195"/>
+      <c r="AJ1" s="196"/>
+      <c r="AK1" s="194">
         <v>45566</v>
       </c>
-      <c r="AL1" s="136"/>
-      <c r="AM1" s="136"/>
-      <c r="AN1" s="136"/>
-      <c r="AO1" s="136"/>
-      <c r="AP1" s="136"/>
-      <c r="AQ1" s="136"/>
-      <c r="AR1" s="136"/>
-      <c r="AS1" s="136"/>
-      <c r="AT1" s="136"/>
-      <c r="AU1" s="136"/>
-      <c r="AV1" s="136"/>
-      <c r="AW1" s="136"/>
-      <c r="AX1" s="136"/>
-      <c r="AY1" s="136"/>
-      <c r="AZ1" s="136"/>
-      <c r="BA1" s="136"/>
-      <c r="BB1" s="136"/>
-      <c r="BC1" s="136"/>
-      <c r="BD1" s="136"/>
-      <c r="BE1" s="136"/>
-      <c r="BF1" s="136"/>
-      <c r="BG1" s="136"/>
-      <c r="BH1" s="136"/>
-      <c r="BI1" s="136"/>
-      <c r="BJ1" s="136"/>
-      <c r="BK1" s="136"/>
-      <c r="BL1" s="136"/>
-      <c r="BM1" s="136"/>
-      <c r="BN1" s="137"/>
+      <c r="AL1" s="195"/>
+      <c r="AM1" s="195"/>
+      <c r="AN1" s="195"/>
+      <c r="AO1" s="195"/>
+      <c r="AP1" s="195"/>
+      <c r="AQ1" s="195"/>
+      <c r="AR1" s="195"/>
+      <c r="AS1" s="195"/>
+      <c r="AT1" s="195"/>
+      <c r="AU1" s="195"/>
+      <c r="AV1" s="195"/>
+      <c r="AW1" s="195"/>
+      <c r="AX1" s="195"/>
+      <c r="AY1" s="195"/>
+      <c r="AZ1" s="195"/>
+      <c r="BA1" s="195"/>
+      <c r="BB1" s="195"/>
+      <c r="BC1" s="195"/>
+      <c r="BD1" s="195"/>
+      <c r="BE1" s="195"/>
+      <c r="BF1" s="195"/>
+      <c r="BG1" s="195"/>
+      <c r="BH1" s="195"/>
+      <c r="BI1" s="195"/>
+      <c r="BJ1" s="195"/>
+      <c r="BK1" s="195"/>
+      <c r="BL1" s="195"/>
+      <c r="BM1" s="195"/>
+      <c r="BN1" s="196"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="139"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="153"/>
+      <c r="A2" s="198"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3655,12 +3655,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="140"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="154"/>
+      <c r="A3" s="199"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="213"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3843,20 +3843,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="155">
+      <c r="A4" s="189">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="161" t="s">
+      <c r="D4" s="191"/>
+      <c r="E4" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="163"/>
+      <c r="F4" s="192"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -3919,12 +3919,12 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="156"/>
+      <c r="A5" s="159"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="164"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="193"/>
       <c r="G5" s="122"/>
       <c r="H5" s="100"/>
       <c r="I5" s="123"/>
@@ -3987,18 +3987,18 @@
       <c r="BN5" s="119"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="165">
+      <c r="A6" s="145">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="173" t="s">
+      <c r="C6" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="177" t="s">
+      <c r="D6" s="154"/>
+      <c r="E6" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="185"/>
       <c r="G6" s="51"/>
       <c r="H6" s="62"/>
       <c r="I6" s="118"/>
@@ -4061,12 +4061,12 @@
       <c r="BN6" s="72"/>
     </row>
     <row r="7" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A7" s="156"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="102"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="179"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="186"/>
       <c r="G7" s="101"/>
       <c r="H7" s="68"/>
       <c r="I7" s="96"/>
@@ -4129,20 +4129,20 @@
       <c r="BN7" s="72"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="165">
+      <c r="A8" s="145">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="166" t="s">
+      <c r="C8" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="167"/>
-      <c r="E8" s="161" t="s">
+      <c r="D8" s="181"/>
+      <c r="E8" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="205"/>
+      <c r="F8" s="149"/>
       <c r="G8" s="50"/>
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
@@ -4205,12 +4205,12 @@
       <c r="BN8" s="95"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="156"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="196"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="150"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -4273,18 +4273,18 @@
       <c r="BN9" s="72"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="165">
+      <c r="A10" s="145">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="166" t="s">
+      <c r="C10" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="167"/>
-      <c r="E10" s="183" t="s">
+      <c r="D10" s="181"/>
+      <c r="E10" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="195"/>
+      <c r="F10" s="151"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -4347,12 +4347,12 @@
       <c r="BN10" s="95"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="156"/>
+      <c r="A11" s="159"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="196"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="150"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4415,18 +4415,18 @@
       <c r="BN11" s="72"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="165">
+      <c r="A12" s="145">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="167"/>
-      <c r="E12" s="186" t="s">
+      <c r="D12" s="181"/>
+      <c r="E12" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="195"/>
+      <c r="F12" s="151"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4489,12 +4489,12 @@
       <c r="BN12" s="95"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="156"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="180"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="203"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="152"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4510,17 +4510,17 @@
       <c r="S13" s="44"/>
       <c r="T13" s="45"/>
       <c r="U13" s="45"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="134"/>
       <c r="Z13" s="44"/>
       <c r="AA13" s="45"/>
       <c r="AB13" s="45"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="43"/>
+      <c r="AC13" s="134"/>
+      <c r="AD13" s="134"/>
+      <c r="AE13" s="134"/>
+      <c r="AF13" s="134"/>
       <c r="AG13" s="44"/>
       <c r="AH13" s="45"/>
       <c r="AI13" s="43"/>
@@ -4557,20 +4557,20 @@
       <c r="BN13" s="127"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="165">
+      <c r="A14" s="145">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="167"/>
-      <c r="E14" s="162" t="s">
+      <c r="D14" s="181"/>
+      <c r="E14" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="171"/>
+      <c r="F14" s="179"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4633,12 +4633,12 @@
       <c r="BN14" s="95"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="156"/>
+      <c r="A15" s="159"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="172"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="170"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4701,18 +4701,18 @@
       <c r="BN15" s="126"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="165">
+      <c r="A16" s="145">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="173" t="s">
+      <c r="C16" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="186" t="s">
+      <c r="D16" s="154"/>
+      <c r="E16" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="187"/>
+      <c r="F16" s="169"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4775,12 +4775,12 @@
       <c r="BN16" s="95"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="156"/>
+      <c r="A17" s="159"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="171"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="179"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4843,20 +4843,20 @@
       <c r="BN17" s="93"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="165">
+      <c r="A18" s="145">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="188" t="s">
+      <c r="C18" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="189"/>
-      <c r="E18" s="161" t="s">
+      <c r="D18" s="140"/>
+      <c r="E18" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="190"/>
+      <c r="F18" s="174"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4919,12 +4919,12 @@
       <c r="BN18" s="133"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="156"/>
+      <c r="A19" s="159"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="172"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="170"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4987,18 +4987,18 @@
       <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="165">
+      <c r="A20" s="145">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="173" t="s">
+      <c r="C20" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="174"/>
-      <c r="E20" s="177" t="s">
+      <c r="D20" s="154"/>
+      <c r="E20" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="187"/>
+      <c r="F20" s="169"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5061,12 +5061,12 @@
       <c r="BN20" s="95"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="156"/>
+      <c r="A21" s="159"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="172"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="170"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5129,18 +5129,18 @@
       <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="165">
+      <c r="A22" s="145">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="173" t="s">
+      <c r="C22" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="183" t="s">
+      <c r="D22" s="154"/>
+      <c r="E22" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="187"/>
+      <c r="F22" s="169"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5203,12 +5203,12 @@
       <c r="BN22" s="95"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="156"/>
+      <c r="A23" s="159"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="176"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="191"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="173"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5271,20 +5271,20 @@
       <c r="BN23" s="75"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="165">
+      <c r="A24" s="145">
         <v>11</v>
       </c>
-      <c r="B24" s="192" t="s">
+      <c r="B24" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="188" t="s">
+      <c r="C24" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="189"/>
-      <c r="E24" s="161" t="s">
+      <c r="D24" s="140"/>
+      <c r="E24" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="190"/>
+      <c r="F24" s="174"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5347,12 +5347,12 @@
       <c r="BN24" s="133"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="156"/>
-      <c r="B25" s="193"/>
-      <c r="C25" s="159"/>
-      <c r="D25" s="160"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="172"/>
+      <c r="A25" s="159"/>
+      <c r="B25" s="176"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="170"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5415,18 +5415,18 @@
       <c r="BN25" s="77"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="165">
+      <c r="A26" s="145">
         <v>12</v>
       </c>
-      <c r="B26" s="193"/>
-      <c r="C26" s="204" t="s">
+      <c r="B26" s="176"/>
+      <c r="C26" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="185"/>
-      <c r="E26" s="183" t="s">
+      <c r="D26" s="158"/>
+      <c r="E26" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="205"/>
+      <c r="F26" s="149"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5489,12 +5489,12 @@
       <c r="BN26" s="95"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="156"/>
-      <c r="B27" s="193"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="196"/>
+      <c r="A27" s="159"/>
+      <c r="B27" s="176"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="150"/>
       <c r="G27" s="51"/>
       <c r="H27" s="91"/>
       <c r="I27" s="7"/>
@@ -5557,18 +5557,18 @@
       <c r="BN27" s="77"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="165">
+      <c r="A28" s="145">
         <v>13</v>
       </c>
-      <c r="B28" s="193"/>
-      <c r="C28" s="173" t="s">
+      <c r="B28" s="176"/>
+      <c r="C28" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="174"/>
-      <c r="E28" s="177" t="s">
+      <c r="D28" s="154"/>
+      <c r="E28" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="195"/>
+      <c r="F28" s="151"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5631,12 +5631,12 @@
       <c r="BN28" s="95"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="156"/>
-      <c r="B29" s="193"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="196"/>
+      <c r="A29" s="159"/>
+      <c r="B29" s="176"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="150"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="91"/>
@@ -5699,18 +5699,18 @@
       <c r="BN29" s="77"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="165">
+      <c r="A30" s="145">
         <v>14</v>
       </c>
-      <c r="B30" s="193"/>
-      <c r="C30" s="173" t="s">
+      <c r="B30" s="176"/>
+      <c r="C30" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="174"/>
-      <c r="E30" s="177" t="s">
+      <c r="D30" s="154"/>
+      <c r="E30" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="195"/>
+      <c r="F30" s="151"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5773,12 +5773,12 @@
       <c r="BN30" s="95"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="156"/>
-      <c r="B31" s="193"/>
-      <c r="C31" s="159"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="196"/>
+      <c r="A31" s="159"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="150"/>
       <c r="G31" s="51"/>
       <c r="H31" s="91"/>
       <c r="I31" s="7"/>
@@ -5841,18 +5841,18 @@
       <c r="BN31" s="77"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="165">
+      <c r="A32" s="145">
         <v>15</v>
       </c>
-      <c r="B32" s="193"/>
-      <c r="C32" s="173" t="s">
+      <c r="B32" s="176"/>
+      <c r="C32" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="174"/>
-      <c r="E32" s="183" t="s">
+      <c r="D32" s="154"/>
+      <c r="E32" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="195"/>
+      <c r="F32" s="151"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5915,12 +5915,12 @@
       <c r="BN32" s="95"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="156"/>
-      <c r="B33" s="193"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="196"/>
+      <c r="A33" s="159"/>
+      <c r="B33" s="176"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="150"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5983,18 +5983,18 @@
       <c r="BN33" s="77"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="165">
+      <c r="A34" s="145">
         <v>16</v>
       </c>
-      <c r="B34" s="193"/>
-      <c r="C34" s="173" t="s">
+      <c r="B34" s="176"/>
+      <c r="C34" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="174"/>
-      <c r="E34" s="177" t="s">
+      <c r="D34" s="154"/>
+      <c r="E34" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="195"/>
+      <c r="F34" s="151"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -6057,12 +6057,12 @@
       <c r="BN34" s="95"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="156"/>
-      <c r="B35" s="193"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="160"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="196"/>
+      <c r="A35" s="159"/>
+      <c r="B35" s="176"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="150"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -6125,18 +6125,18 @@
       <c r="BN35" s="77"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="165">
+      <c r="A36" s="145">
         <v>17</v>
       </c>
-      <c r="B36" s="193"/>
+      <c r="B36" s="176"/>
       <c r="C36" s="112" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="113"/>
-      <c r="E36" s="177" t="s">
+      <c r="E36" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="195"/>
+      <c r="F36" s="151"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -6199,12 +6199,12 @@
       <c r="BN36" s="95"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="156"/>
-      <c r="B37" s="194"/>
+      <c r="A37" s="159"/>
+      <c r="B37" s="177"/>
       <c r="C37" s="114"/>
       <c r="D37" s="115"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="203"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="152"/>
       <c r="G37" s="54"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -6267,20 +6267,20 @@
       <c r="BN37" s="75"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="165">
+      <c r="A38" s="145">
         <v>20</v>
       </c>
       <c r="B38" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="197" t="s">
+      <c r="C38" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="198"/>
-      <c r="E38" s="161" t="s">
+      <c r="D38" s="161"/>
+      <c r="E38" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="201"/>
+      <c r="F38" s="165"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -6344,12 +6344,12 @@
       <c r="BO38" s="97"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="156"/>
+      <c r="A39" s="159"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="199"/>
-      <c r="D39" s="200"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="202"/>
+      <c r="C39" s="162"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="166"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6413,20 +6413,20 @@
       <c r="BO39" s="97"/>
     </row>
     <row r="40" spans="1:67">
-      <c r="A40" s="165">
+      <c r="A40" s="145">
         <v>21</v>
       </c>
-      <c r="B40" s="207" t="s">
+      <c r="B40" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="188" t="s">
+      <c r="C40" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="189"/>
-      <c r="E40" s="162" t="s">
+      <c r="D40" s="140"/>
+      <c r="E40" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="211"/>
+      <c r="F40" s="143"/>
       <c r="G40" s="38"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6490,12 +6490,12 @@
       <c r="BO40" s="97"/>
     </row>
     <row r="41" spans="1:67" ht="10.199999999999999" thickBot="1">
-      <c r="A41" s="213"/>
-      <c r="B41" s="208"/>
-      <c r="C41" s="209"/>
-      <c r="D41" s="210"/>
-      <c r="E41" s="206"/>
-      <c r="F41" s="212"/>
+      <c r="A41" s="146"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="142"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="144"/>
       <c r="G41" s="39"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -6580,23 +6580,57 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B24:B37"/>
+    <mergeCell ref="F34:F35"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C38:D39"/>
     <mergeCell ref="E38:E39"/>
@@ -6613,57 +6647,23 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B24:B37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -6707,54 +6707,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="144" t="s">
+      <c r="C1" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="150" t="s">
+      <c r="D1" s="204"/>
+      <c r="E1" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="152" t="s">
+      <c r="F1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="135"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="136"/>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
-      <c r="W1" s="136"/>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="136"/>
-      <c r="AB1" s="136"/>
-      <c r="AC1" s="136"/>
-      <c r="AD1" s="137"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="195"/>
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
+      <c r="V1" s="195"/>
+      <c r="W1" s="195"/>
+      <c r="X1" s="195"/>
+      <c r="Y1" s="195"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="195"/>
+      <c r="AB1" s="195"/>
+      <c r="AC1" s="195"/>
+      <c r="AD1" s="196"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="139"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="153"/>
+      <c r="A2" s="198"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -6829,12 +6829,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="140"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="154"/>
+      <c r="A3" s="199"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="213"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -6909,20 +6909,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="155">
+      <c r="A4" s="189">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="233" t="s">
+      <c r="D4" s="191"/>
+      <c r="E4" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="163"/>
+      <c r="F4" s="192"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -6945,20 +6945,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="234" t="s">
+      <c r="AC4" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="228" t="s">
+      <c r="AD4" s="215" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="156"/>
+      <c r="A5" s="159"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="164"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="193"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -6981,22 +6981,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="235"/>
-      <c r="AD5" s="229"/>
+      <c r="AC5" s="222"/>
+      <c r="AD5" s="216"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="165">
+      <c r="A6" s="145">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="173" t="s">
+      <c r="C6" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="231" t="s">
+      <c r="D6" s="154"/>
+      <c r="E6" s="218" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="185"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7019,16 +7019,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="235"/>
-      <c r="AD6" s="229"/>
+      <c r="AC6" s="222"/>
+      <c r="AD6" s="216"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="156"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="179"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="186"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7051,24 +7051,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="235"/>
-      <c r="AD7" s="229"/>
+      <c r="AC7" s="222"/>
+      <c r="AD7" s="216"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="217">
+      <c r="A8" s="224">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="237" t="s">
+      <c r="C8" s="226" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="238"/>
-      <c r="E8" s="239" t="s">
+      <c r="D8" s="227"/>
+      <c r="E8" s="228" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="190"/>
+      <c r="F8" s="174"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7091,16 +7091,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="235"/>
-      <c r="AD8" s="229"/>
+      <c r="AC8" s="222"/>
+      <c r="AD8" s="216"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="218"/>
+      <c r="A9" s="225"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="191"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="173"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7123,24 +7123,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="235"/>
-      <c r="AD9" s="229"/>
+      <c r="AC9" s="222"/>
+      <c r="AD9" s="216"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="226">
+      <c r="A10" s="230">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="166" t="s">
+      <c r="C10" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="167"/>
-      <c r="E10" s="225" t="s">
+      <c r="D10" s="181"/>
+      <c r="E10" s="231" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="171"/>
+      <c r="F10" s="179"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7163,16 +7163,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="235"/>
-      <c r="AD10" s="229"/>
+      <c r="AC10" s="222"/>
+      <c r="AD10" s="216"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="218"/>
+      <c r="A11" s="225"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="221"/>
-      <c r="F11" s="172"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="232"/>
+      <c r="F11" s="170"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7195,22 +7195,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="235"/>
-      <c r="AD11" s="229"/>
+      <c r="AC11" s="222"/>
+      <c r="AD11" s="216"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="217">
+      <c r="A12" s="224">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="173" t="s">
+      <c r="C12" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="174"/>
-      <c r="E12" s="227" t="s">
+      <c r="D12" s="154"/>
+      <c r="E12" s="233" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="187"/>
+      <c r="F12" s="169"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7233,16 +7233,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="235"/>
-      <c r="AD12" s="229"/>
+      <c r="AC12" s="222"/>
+      <c r="AD12" s="216"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="226"/>
+      <c r="A13" s="230"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="225"/>
-      <c r="F13" s="171"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="179"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7265,24 +7265,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="235"/>
-      <c r="AD13" s="229"/>
+      <c r="AC13" s="222"/>
+      <c r="AD13" s="216"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="222">
+      <c r="A14" s="234">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="188" t="s">
+      <c r="C14" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="189"/>
-      <c r="E14" s="224" t="s">
+      <c r="D14" s="140"/>
+      <c r="E14" s="235" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="190"/>
+      <c r="F14" s="174"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7305,16 +7305,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="235"/>
-      <c r="AD14" s="229"/>
+      <c r="AC14" s="222"/>
+      <c r="AD14" s="216"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="222"/>
+      <c r="A15" s="234"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="221"/>
-      <c r="F15" s="172"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="232"/>
+      <c r="F15" s="170"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7337,22 +7337,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="235"/>
-      <c r="AD15" s="229"/>
+      <c r="AC15" s="222"/>
+      <c r="AD15" s="216"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="222">
+      <c r="A16" s="234">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="173" t="s">
+      <c r="C16" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="220" t="s">
+      <c r="D16" s="154"/>
+      <c r="E16" s="236" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="187"/>
+      <c r="F16" s="169"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7375,16 +7375,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="235"/>
-      <c r="AD16" s="229"/>
+      <c r="AC16" s="222"/>
+      <c r="AD16" s="216"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="222"/>
+      <c r="A17" s="234"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="159"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="172"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="232"/>
+      <c r="F17" s="170"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7407,22 +7407,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="235"/>
-      <c r="AD17" s="229"/>
+      <c r="AC17" s="222"/>
+      <c r="AD17" s="216"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="222">
+      <c r="A18" s="234">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="173" t="s">
+      <c r="C18" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="174"/>
-      <c r="E18" s="220" t="s">
+      <c r="D18" s="154"/>
+      <c r="E18" s="236" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="187"/>
+      <c r="F18" s="169"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7445,16 +7445,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="235"/>
-      <c r="AD18" s="229"/>
+      <c r="AC18" s="222"/>
+      <c r="AD18" s="216"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="222"/>
+      <c r="A19" s="234"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="223"/>
-      <c r="F19" s="191"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="229"/>
+      <c r="F19" s="173"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7477,24 +7477,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="235"/>
-      <c r="AD19" s="229"/>
+      <c r="AC19" s="222"/>
+      <c r="AD19" s="216"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="217">
+      <c r="A20" s="224">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="188" t="s">
+      <c r="C20" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="189"/>
-      <c r="E20" s="224" t="s">
+      <c r="D20" s="140"/>
+      <c r="E20" s="235" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="190"/>
+      <c r="F20" s="174"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7517,18 +7517,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="235"/>
-      <c r="AD20" s="229"/>
+      <c r="AC20" s="222"/>
+      <c r="AD20" s="216"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="218"/>
+      <c r="A21" s="225"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="221"/>
-      <c r="F21" s="172"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="232"/>
+      <c r="F21" s="170"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7551,22 +7551,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="235"/>
-      <c r="AD21" s="229"/>
+      <c r="AC21" s="222"/>
+      <c r="AD21" s="216"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="217">
+      <c r="A22" s="224">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="219" t="s">
+      <c r="C22" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="220" t="s">
+      <c r="D22" s="154"/>
+      <c r="E22" s="236" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="187"/>
+      <c r="F22" s="169"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -7589,16 +7589,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="235"/>
-      <c r="AD22" s="229"/>
+      <c r="AC22" s="222"/>
+      <c r="AD22" s="216"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="218"/>
+      <c r="A23" s="225"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="221"/>
-      <c r="F23" s="172"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="232"/>
+      <c r="F23" s="170"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7621,22 +7621,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="235"/>
-      <c r="AD23" s="229"/>
+      <c r="AC23" s="222"/>
+      <c r="AD23" s="216"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="217">
+      <c r="A24" s="224">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="219" t="s">
+      <c r="C24" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="174"/>
-      <c r="E24" s="220" t="s">
+      <c r="D24" s="154"/>
+      <c r="E24" s="236" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="187"/>
+      <c r="F24" s="169"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -7659,16 +7659,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="235"/>
-      <c r="AD24" s="229"/>
+      <c r="AC24" s="222"/>
+      <c r="AD24" s="216"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="218"/>
+      <c r="A25" s="225"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="159"/>
-      <c r="D25" s="160"/>
-      <c r="E25" s="221"/>
-      <c r="F25" s="191"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="232"/>
+      <c r="F25" s="173"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7691,24 +7691,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="235"/>
-      <c r="AD25" s="229"/>
+      <c r="AC25" s="222"/>
+      <c r="AD25" s="216"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="165">
+      <c r="A26" s="145">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="197" t="s">
+      <c r="C26" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="198"/>
-      <c r="E26" s="214" t="s">
+      <c r="D26" s="161"/>
+      <c r="E26" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="201"/>
+      <c r="F26" s="165"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7731,16 +7731,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="235"/>
-      <c r="AD26" s="229"/>
+      <c r="AC26" s="222"/>
+      <c r="AD26" s="216"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="156"/>
+      <c r="A27" s="159"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="199"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="202"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="239"/>
+      <c r="F27" s="166"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7763,24 +7763,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="235"/>
-      <c r="AD27" s="229"/>
+      <c r="AC27" s="222"/>
+      <c r="AD27" s="216"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="165">
+      <c r="A28" s="145">
         <v>14</v>
       </c>
-      <c r="B28" s="207" t="s">
+      <c r="B28" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="188" t="s">
+      <c r="C28" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="189"/>
-      <c r="E28" s="207" t="s">
+      <c r="D28" s="140"/>
+      <c r="E28" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="211"/>
+      <c r="F28" s="143"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7803,16 +7803,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="235"/>
-      <c r="AD28" s="229"/>
+      <c r="AC28" s="222"/>
+      <c r="AD28" s="216"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="216"/>
-      <c r="B29" s="208"/>
-      <c r="C29" s="209"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="208"/>
-      <c r="F29" s="212"/>
+      <c r="A29" s="240"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="144"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7835,8 +7835,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="236"/>
-      <c r="AD29" s="230"/>
+      <c r="AC29" s="223"/>
+      <c r="AD29" s="217"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -7856,12 +7856,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -7878,45 +7911,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/099-納品物/000-要件定義/003-WBS-納品版.xlsx
+++ b/099-納品物/000-要件定義/003-WBS-納品版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\099-納品物\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F57858-F72D-43B3-B7ED-CFE5609EDAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF3E516-3B5B-40F6-9BE9-BF4D39C2EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="13" r:id="rId1"/>
@@ -1735,7 +1735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2127,9 +2127,219 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2139,12 +2349,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2157,293 +2361,101 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3305,11 +3317,11 @@
   </sheetPr>
   <dimension ref="A1:BO46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="R11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="7" topLeftCell="M8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AE10" sqref="AE10"/>
+      <selection pane="bottomRight" activeCell="AM25" sqref="AM25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3326,94 +3338,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="203" t="s">
+      <c r="C1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="204"/>
-      <c r="E1" s="209" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="211" t="s">
+      <c r="F1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="194">
+      <c r="G1" s="135">
         <v>45536</v>
       </c>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="195"/>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="195"/>
-      <c r="Z1" s="195"/>
-      <c r="AA1" s="195"/>
-      <c r="AB1" s="195"/>
-      <c r="AC1" s="195"/>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="195"/>
-      <c r="AH1" s="195"/>
-      <c r="AI1" s="195"/>
-      <c r="AJ1" s="196"/>
-      <c r="AK1" s="194">
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="136"/>
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="136"/>
+      <c r="AH1" s="136"/>
+      <c r="AI1" s="136"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="135">
         <v>45566</v>
       </c>
-      <c r="AL1" s="195"/>
-      <c r="AM1" s="195"/>
-      <c r="AN1" s="195"/>
-      <c r="AO1" s="195"/>
-      <c r="AP1" s="195"/>
-      <c r="AQ1" s="195"/>
-      <c r="AR1" s="195"/>
-      <c r="AS1" s="195"/>
-      <c r="AT1" s="195"/>
-      <c r="AU1" s="195"/>
-      <c r="AV1" s="195"/>
-      <c r="AW1" s="195"/>
-      <c r="AX1" s="195"/>
-      <c r="AY1" s="195"/>
-      <c r="AZ1" s="195"/>
-      <c r="BA1" s="195"/>
-      <c r="BB1" s="195"/>
-      <c r="BC1" s="195"/>
-      <c r="BD1" s="195"/>
-      <c r="BE1" s="195"/>
-      <c r="BF1" s="195"/>
-      <c r="BG1" s="195"/>
-      <c r="BH1" s="195"/>
-      <c r="BI1" s="195"/>
-      <c r="BJ1" s="195"/>
-      <c r="BK1" s="195"/>
-      <c r="BL1" s="195"/>
-      <c r="BM1" s="195"/>
-      <c r="BN1" s="196"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="136"/>
+      <c r="AN1" s="136"/>
+      <c r="AO1" s="136"/>
+      <c r="AP1" s="136"/>
+      <c r="AQ1" s="136"/>
+      <c r="AR1" s="136"/>
+      <c r="AS1" s="136"/>
+      <c r="AT1" s="136"/>
+      <c r="AU1" s="136"/>
+      <c r="AV1" s="136"/>
+      <c r="AW1" s="136"/>
+      <c r="AX1" s="136"/>
+      <c r="AY1" s="136"/>
+      <c r="AZ1" s="136"/>
+      <c r="BA1" s="136"/>
+      <c r="BB1" s="136"/>
+      <c r="BC1" s="136"/>
+      <c r="BD1" s="136"/>
+      <c r="BE1" s="136"/>
+      <c r="BF1" s="136"/>
+      <c r="BG1" s="136"/>
+      <c r="BH1" s="136"/>
+      <c r="BI1" s="136"/>
+      <c r="BJ1" s="136"/>
+      <c r="BK1" s="136"/>
+      <c r="BL1" s="136"/>
+      <c r="BM1" s="136"/>
+      <c r="BN1" s="137"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="198"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="212"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3655,12 +3667,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="199"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="213"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="154"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3843,20 +3855,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="189">
+      <c r="A4" s="155">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="190" t="s">
+      <c r="C4" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="191"/>
-      <c r="E4" s="164" t="s">
+      <c r="D4" s="158"/>
+      <c r="E4" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="192"/>
+      <c r="F4" s="163"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -3919,12 +3931,12 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="159"/>
+      <c r="A5" s="156"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="193"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="164"/>
       <c r="G5" s="122"/>
       <c r="H5" s="100"/>
       <c r="I5" s="123"/>
@@ -3987,18 +3999,18 @@
       <c r="BN5" s="119"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="145">
+      <c r="A6" s="165">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="153" t="s">
+      <c r="C6" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="154"/>
-      <c r="E6" s="167" t="s">
+      <c r="D6" s="174"/>
+      <c r="E6" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="185"/>
+      <c r="F6" s="178"/>
       <c r="G6" s="51"/>
       <c r="H6" s="62"/>
       <c r="I6" s="118"/>
@@ -4061,12 +4073,12 @@
       <c r="BN6" s="72"/>
     </row>
     <row r="7" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A7" s="159"/>
+      <c r="A7" s="156"/>
       <c r="B7" s="102"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="186"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="179"/>
       <c r="G7" s="101"/>
       <c r="H7" s="68"/>
       <c r="I7" s="96"/>
@@ -4129,20 +4141,20 @@
       <c r="BN7" s="72"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="145">
+      <c r="A8" s="165">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="180" t="s">
+      <c r="C8" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="181"/>
-      <c r="E8" s="164" t="s">
+      <c r="D8" s="167"/>
+      <c r="E8" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="149"/>
+      <c r="F8" s="205"/>
       <c r="G8" s="50"/>
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
@@ -4205,12 +4217,12 @@
       <c r="BN8" s="95"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="159"/>
+      <c r="A9" s="156"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="150"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="196"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -4273,18 +4285,18 @@
       <c r="BN9" s="72"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="145">
+      <c r="A10" s="165">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="180" t="s">
+      <c r="C10" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="181"/>
-      <c r="E10" s="148" t="s">
+      <c r="D10" s="167"/>
+      <c r="E10" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="151"/>
+      <c r="F10" s="195"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -4347,12 +4359,12 @@
       <c r="BN10" s="95"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="159"/>
+      <c r="A11" s="156"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="150"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="196"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4415,18 +4427,18 @@
       <c r="BN11" s="72"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="145">
+      <c r="A12" s="165">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="180" t="s">
+      <c r="C12" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="181"/>
-      <c r="E12" s="147" t="s">
+      <c r="D12" s="167"/>
+      <c r="E12" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="151"/>
+      <c r="F12" s="195"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4489,12 +4501,12 @@
       <c r="BN12" s="95"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="159"/>
+      <c r="A13" s="156"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="187"/>
-      <c r="D13" s="188"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="152"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="203"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4519,8 +4531,8 @@
       <c r="AB13" s="45"/>
       <c r="AC13" s="134"/>
       <c r="AD13" s="134"/>
-      <c r="AE13" s="134"/>
-      <c r="AF13" s="134"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="98"/>
       <c r="AG13" s="44"/>
       <c r="AH13" s="45"/>
       <c r="AI13" s="43"/>
@@ -4557,20 +4569,20 @@
       <c r="BN13" s="127"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="145">
+      <c r="A14" s="165">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="180" t="s">
+      <c r="C14" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="181"/>
-      <c r="E14" s="135" t="s">
+      <c r="D14" s="167"/>
+      <c r="E14" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="179"/>
+      <c r="F14" s="171"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4633,12 +4645,12 @@
       <c r="BN14" s="95"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="159"/>
+      <c r="A15" s="156"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="170"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="172"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4661,14 +4673,14 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="22"/>
       <c r="AB15" s="22"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
       <c r="AG15" s="16"/>
       <c r="AH15" s="22"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="119"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="241"/>
       <c r="AK15" s="80"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
@@ -4701,18 +4713,18 @@
       <c r="BN15" s="126"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="145">
+      <c r="A16" s="165">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="153" t="s">
+      <c r="C16" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="154"/>
-      <c r="E16" s="147" t="s">
+      <c r="D16" s="174"/>
+      <c r="E16" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="169"/>
+      <c r="F16" s="187"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4775,12 +4787,12 @@
       <c r="BN16" s="95"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="159"/>
+      <c r="A17" s="156"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="179"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="171"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4803,14 +4815,14 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="26"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="43"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="98"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="134"/>
+      <c r="AE17" s="128"/>
+      <c r="AF17" s="242"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="23"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="93"/>
+      <c r="AI17" s="128"/>
+      <c r="AJ17" s="243"/>
       <c r="AK17" s="80"/>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
@@ -4843,20 +4855,20 @@
       <c r="BN17" s="93"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="145">
+      <c r="A18" s="165">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="139" t="s">
+      <c r="C18" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="164" t="s">
+      <c r="D18" s="189"/>
+      <c r="E18" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="174"/>
+      <c r="F18" s="190"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4919,12 +4931,12 @@
       <c r="BN18" s="133"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="159"/>
+      <c r="A19" s="156"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="170"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="172"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4955,9 +4967,9 @@
       <c r="AH19" s="26"/>
       <c r="AI19" s="117"/>
       <c r="AJ19" s="125"/>
-      <c r="AK19" s="82"/>
-      <c r="AL19" s="24"/>
-      <c r="AM19" s="24"/>
+      <c r="AK19" s="244"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="32"/>
       <c r="AN19" s="25"/>
       <c r="AO19" s="26"/>
       <c r="AP19" s="24"/>
@@ -4987,18 +4999,18 @@
       <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="145">
+      <c r="A20" s="165">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="153" t="s">
+      <c r="C20" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="154"/>
-      <c r="E20" s="167" t="s">
+      <c r="D20" s="174"/>
+      <c r="E20" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="169"/>
+      <c r="F20" s="187"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5061,12 +5073,12 @@
       <c r="BN20" s="95"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="159"/>
+      <c r="A21" s="156"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="170"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="172"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5099,7 +5111,7 @@
       <c r="AJ21" s="125"/>
       <c r="AK21" s="82"/>
       <c r="AL21" s="24"/>
-      <c r="AM21" s="24"/>
+      <c r="AM21" s="32"/>
       <c r="AN21" s="25"/>
       <c r="AO21" s="26"/>
       <c r="AP21" s="24"/>
@@ -5129,18 +5141,18 @@
       <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="145">
+      <c r="A22" s="165">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="153" t="s">
+      <c r="C22" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="154"/>
-      <c r="E22" s="148" t="s">
+      <c r="D22" s="174"/>
+      <c r="E22" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="169"/>
+      <c r="F22" s="187"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5203,12 +5215,12 @@
       <c r="BN22" s="95"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="159"/>
+      <c r="A23" s="156"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="173"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="191"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5241,7 +5253,7 @@
       <c r="AJ23" s="75"/>
       <c r="AK23" s="85"/>
       <c r="AL23" s="68"/>
-      <c r="AM23" s="68"/>
+      <c r="AM23" s="128"/>
       <c r="AN23" s="17"/>
       <c r="AO23" s="23"/>
       <c r="AP23" s="68"/>
@@ -5271,20 +5283,20 @@
       <c r="BN23" s="75"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="145">
+      <c r="A24" s="165">
         <v>11</v>
       </c>
-      <c r="B24" s="175" t="s">
+      <c r="B24" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="139" t="s">
+      <c r="C24" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="140"/>
-      <c r="E24" s="164" t="s">
+      <c r="D24" s="189"/>
+      <c r="E24" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="174"/>
+      <c r="F24" s="190"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5347,12 +5359,12 @@
       <c r="BN24" s="133"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="159"/>
-      <c r="B25" s="176"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="170"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="193"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="172"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5385,7 +5397,7 @@
       <c r="AJ25" s="77"/>
       <c r="AK25" s="87"/>
       <c r="AL25" s="63"/>
-      <c r="AM25" s="63"/>
+      <c r="AM25" s="129"/>
       <c r="AN25" s="13"/>
       <c r="AO25" s="19"/>
       <c r="AP25" s="110"/>
@@ -5415,18 +5427,18 @@
       <c r="BN25" s="77"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="145">
+      <c r="A26" s="165">
         <v>12</v>
       </c>
-      <c r="B26" s="176"/>
-      <c r="C26" s="157" t="s">
+      <c r="B26" s="193"/>
+      <c r="C26" s="204" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="158"/>
-      <c r="E26" s="148" t="s">
+      <c r="D26" s="185"/>
+      <c r="E26" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="149"/>
+      <c r="F26" s="205"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5489,12 +5501,12 @@
       <c r="BN26" s="95"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="159"/>
-      <c r="B27" s="176"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="150"/>
+      <c r="A27" s="156"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="196"/>
       <c r="G27" s="51"/>
       <c r="H27" s="91"/>
       <c r="I27" s="7"/>
@@ -5557,18 +5569,18 @@
       <c r="BN27" s="77"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="145">
+      <c r="A28" s="165">
         <v>13</v>
       </c>
-      <c r="B28" s="176"/>
-      <c r="C28" s="153" t="s">
+      <c r="B28" s="193"/>
+      <c r="C28" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="154"/>
-      <c r="E28" s="167" t="s">
+      <c r="D28" s="174"/>
+      <c r="E28" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="151"/>
+      <c r="F28" s="195"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5631,12 +5643,12 @@
       <c r="BN28" s="95"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="159"/>
-      <c r="B29" s="176"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="150"/>
+      <c r="A29" s="156"/>
+      <c r="B29" s="193"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="196"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="91"/>
@@ -5699,18 +5711,18 @@
       <c r="BN29" s="77"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="145">
+      <c r="A30" s="165">
         <v>14</v>
       </c>
-      <c r="B30" s="176"/>
-      <c r="C30" s="153" t="s">
+      <c r="B30" s="193"/>
+      <c r="C30" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="154"/>
-      <c r="E30" s="167" t="s">
+      <c r="D30" s="174"/>
+      <c r="E30" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="151"/>
+      <c r="F30" s="195"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5773,12 +5785,12 @@
       <c r="BN30" s="95"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="159"/>
-      <c r="B31" s="176"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="150"/>
+      <c r="A31" s="156"/>
+      <c r="B31" s="193"/>
+      <c r="C31" s="159"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="196"/>
       <c r="G31" s="51"/>
       <c r="H31" s="91"/>
       <c r="I31" s="7"/>
@@ -5841,18 +5853,18 @@
       <c r="BN31" s="77"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="145">
+      <c r="A32" s="165">
         <v>15</v>
       </c>
-      <c r="B32" s="176"/>
-      <c r="C32" s="153" t="s">
+      <c r="B32" s="193"/>
+      <c r="C32" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="154"/>
-      <c r="E32" s="148" t="s">
+      <c r="D32" s="174"/>
+      <c r="E32" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="151"/>
+      <c r="F32" s="195"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5915,12 +5927,12 @@
       <c r="BN32" s="95"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="159"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="150"/>
+      <c r="A33" s="156"/>
+      <c r="B33" s="193"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="196"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5983,18 +5995,18 @@
       <c r="BN33" s="77"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="145">
+      <c r="A34" s="165">
         <v>16</v>
       </c>
-      <c r="B34" s="176"/>
-      <c r="C34" s="153" t="s">
+      <c r="B34" s="193"/>
+      <c r="C34" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="154"/>
-      <c r="E34" s="167" t="s">
+      <c r="D34" s="174"/>
+      <c r="E34" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="151"/>
+      <c r="F34" s="195"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -6057,12 +6069,12 @@
       <c r="BN34" s="95"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="159"/>
-      <c r="B35" s="176"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="150"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="193"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="196"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -6125,18 +6137,18 @@
       <c r="BN35" s="77"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="145">
+      <c r="A36" s="165">
         <v>17</v>
       </c>
-      <c r="B36" s="176"/>
+      <c r="B36" s="193"/>
       <c r="C36" s="112" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="113"/>
-      <c r="E36" s="167" t="s">
+      <c r="E36" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="151"/>
+      <c r="F36" s="195"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -6199,12 +6211,12 @@
       <c r="BN36" s="95"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="159"/>
-      <c r="B37" s="177"/>
+      <c r="A37" s="156"/>
+      <c r="B37" s="194"/>
       <c r="C37" s="114"/>
       <c r="D37" s="115"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="152"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="203"/>
       <c r="G37" s="54"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -6267,20 +6279,20 @@
       <c r="BN37" s="75"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="145">
+      <c r="A38" s="165">
         <v>20</v>
       </c>
       <c r="B38" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="160" t="s">
+      <c r="C38" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="161"/>
-      <c r="E38" s="164" t="s">
+      <c r="D38" s="198"/>
+      <c r="E38" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="165"/>
+      <c r="F38" s="201"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -6344,12 +6356,12 @@
       <c r="BO38" s="97"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="159"/>
+      <c r="A39" s="156"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="162"/>
-      <c r="D39" s="163"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="166"/>
+      <c r="C39" s="199"/>
+      <c r="D39" s="200"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="202"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6413,20 +6425,20 @@
       <c r="BO39" s="97"/>
     </row>
     <row r="40" spans="1:67">
-      <c r="A40" s="145">
+      <c r="A40" s="165">
         <v>21</v>
       </c>
-      <c r="B40" s="137" t="s">
+      <c r="B40" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="139" t="s">
+      <c r="C40" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="140"/>
-      <c r="E40" s="135" t="s">
+      <c r="D40" s="189"/>
+      <c r="E40" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="143"/>
+      <c r="F40" s="211"/>
       <c r="G40" s="38"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6490,12 +6502,12 @@
       <c r="BO40" s="97"/>
     </row>
     <row r="41" spans="1:67" ht="10.199999999999999" thickBot="1">
-      <c r="A41" s="146"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="142"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="144"/>
+      <c r="A41" s="213"/>
+      <c r="B41" s="208"/>
+      <c r="C41" s="209"/>
+      <c r="D41" s="210"/>
+      <c r="E41" s="206"/>
+      <c r="F41" s="212"/>
       <c r="G41" s="39"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -6580,17 +6592,63 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B24:B37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:E15"/>
@@ -6607,63 +6665,17 @@
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B24:B37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -6707,54 +6719,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="203" t="s">
+      <c r="C1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="204"/>
-      <c r="E1" s="209" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="211" t="s">
+      <c r="F1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="194"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="195"/>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="195"/>
-      <c r="Z1" s="195"/>
-      <c r="AA1" s="195"/>
-      <c r="AB1" s="195"/>
-      <c r="AC1" s="195"/>
-      <c r="AD1" s="196"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="137"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="198"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="212"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -6829,12 +6841,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="199"/>
-      <c r="B3" s="202"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="213"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="154"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -6909,20 +6921,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="189">
+      <c r="A4" s="155">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="190" t="s">
+      <c r="C4" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="191"/>
-      <c r="E4" s="220" t="s">
+      <c r="D4" s="158"/>
+      <c r="E4" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="192"/>
+      <c r="F4" s="163"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -6945,20 +6957,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="221" t="s">
+      <c r="AC4" s="234" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="215" t="s">
+      <c r="AD4" s="228" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="159"/>
+      <c r="A5" s="156"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="193"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="164"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -6981,22 +6993,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="222"/>
-      <c r="AD5" s="216"/>
+      <c r="AC5" s="235"/>
+      <c r="AD5" s="229"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="145">
+      <c r="A6" s="165">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="153" t="s">
+      <c r="C6" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="154"/>
-      <c r="E6" s="218" t="s">
+      <c r="D6" s="174"/>
+      <c r="E6" s="231" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="185"/>
+      <c r="F6" s="178"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7019,16 +7031,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="222"/>
-      <c r="AD6" s="216"/>
+      <c r="AC6" s="235"/>
+      <c r="AD6" s="229"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="159"/>
+      <c r="A7" s="156"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="186"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="179"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7051,24 +7063,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="222"/>
-      <c r="AD7" s="216"/>
+      <c r="AC7" s="235"/>
+      <c r="AD7" s="229"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="224">
+      <c r="A8" s="217">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="226" t="s">
+      <c r="C8" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="227"/>
-      <c r="E8" s="228" t="s">
+      <c r="D8" s="238"/>
+      <c r="E8" s="239" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="174"/>
+      <c r="F8" s="190"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7091,16 +7103,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="222"/>
-      <c r="AD8" s="216"/>
+      <c r="AC8" s="235"/>
+      <c r="AD8" s="229"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="225"/>
+      <c r="A9" s="218"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="173"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="191"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7123,24 +7135,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="222"/>
-      <c r="AD9" s="216"/>
+      <c r="AC9" s="235"/>
+      <c r="AD9" s="229"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="230">
+      <c r="A10" s="226">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="180" t="s">
+      <c r="C10" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="181"/>
-      <c r="E10" s="231" t="s">
+      <c r="D10" s="167"/>
+      <c r="E10" s="225" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="179"/>
+      <c r="F10" s="171"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7163,16 +7175,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="222"/>
-      <c r="AD10" s="216"/>
+      <c r="AC10" s="235"/>
+      <c r="AD10" s="229"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="225"/>
+      <c r="A11" s="218"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="232"/>
-      <c r="F11" s="170"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="172"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7195,22 +7207,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="222"/>
-      <c r="AD11" s="216"/>
+      <c r="AC11" s="235"/>
+      <c r="AD11" s="229"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="224">
+      <c r="A12" s="217">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="154"/>
-      <c r="E12" s="233" t="s">
+      <c r="D12" s="174"/>
+      <c r="E12" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="169"/>
+      <c r="F12" s="187"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7233,16 +7245,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="222"/>
-      <c r="AD12" s="216"/>
+      <c r="AC12" s="235"/>
+      <c r="AD12" s="229"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="230"/>
+      <c r="A13" s="226"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="179"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="225"/>
+      <c r="F13" s="171"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7265,24 +7277,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="222"/>
-      <c r="AD13" s="216"/>
+      <c r="AC13" s="235"/>
+      <c r="AD13" s="229"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="234">
+      <c r="A14" s="222">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="139" t="s">
+      <c r="C14" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="140"/>
-      <c r="E14" s="235" t="s">
+      <c r="D14" s="189"/>
+      <c r="E14" s="224" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="174"/>
+      <c r="F14" s="190"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7305,16 +7317,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="222"/>
-      <c r="AD14" s="216"/>
+      <c r="AC14" s="235"/>
+      <c r="AD14" s="229"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="234"/>
+      <c r="A15" s="222"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="232"/>
-      <c r="F15" s="170"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="172"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7337,22 +7349,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="222"/>
-      <c r="AD15" s="216"/>
+      <c r="AC15" s="235"/>
+      <c r="AD15" s="229"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="234">
+      <c r="A16" s="222">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="153" t="s">
+      <c r="C16" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="154"/>
-      <c r="E16" s="236" t="s">
+      <c r="D16" s="174"/>
+      <c r="E16" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="169"/>
+      <c r="F16" s="187"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7375,16 +7387,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="222"/>
-      <c r="AD16" s="216"/>
+      <c r="AC16" s="235"/>
+      <c r="AD16" s="229"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="234"/>
+      <c r="A17" s="222"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="232"/>
-      <c r="F17" s="170"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="172"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7407,22 +7419,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="222"/>
-      <c r="AD17" s="216"/>
+      <c r="AC17" s="235"/>
+      <c r="AD17" s="229"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="234">
+      <c r="A18" s="222">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="153" t="s">
+      <c r="C18" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="154"/>
-      <c r="E18" s="236" t="s">
+      <c r="D18" s="174"/>
+      <c r="E18" s="220" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="169"/>
+      <c r="F18" s="187"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7445,16 +7457,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="222"/>
-      <c r="AD18" s="216"/>
+      <c r="AC18" s="235"/>
+      <c r="AD18" s="229"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="234"/>
+      <c r="A19" s="222"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="229"/>
-      <c r="F19" s="173"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="191"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7477,24 +7489,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="222"/>
-      <c r="AD19" s="216"/>
+      <c r="AC19" s="235"/>
+      <c r="AD19" s="229"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="224">
+      <c r="A20" s="217">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="139" t="s">
+      <c r="C20" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="140"/>
-      <c r="E20" s="235" t="s">
+      <c r="D20" s="189"/>
+      <c r="E20" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="174"/>
+      <c r="F20" s="190"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7517,18 +7529,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="222"/>
-      <c r="AD20" s="216"/>
+      <c r="AC20" s="235"/>
+      <c r="AD20" s="229"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="225"/>
+      <c r="A21" s="218"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="232"/>
-      <c r="F21" s="170"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="172"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7551,22 +7563,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="222"/>
-      <c r="AD21" s="216"/>
+      <c r="AC21" s="235"/>
+      <c r="AD21" s="229"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="224">
+      <c r="A22" s="217">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="237" t="s">
+      <c r="C22" s="219" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="154"/>
-      <c r="E22" s="236" t="s">
+      <c r="D22" s="174"/>
+      <c r="E22" s="220" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="169"/>
+      <c r="F22" s="187"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -7589,16 +7601,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="222"/>
-      <c r="AD22" s="216"/>
+      <c r="AC22" s="235"/>
+      <c r="AD22" s="229"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="225"/>
+      <c r="A23" s="218"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="232"/>
-      <c r="F23" s="170"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="221"/>
+      <c r="F23" s="172"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7621,22 +7633,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="222"/>
-      <c r="AD23" s="216"/>
+      <c r="AC23" s="235"/>
+      <c r="AD23" s="229"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="224">
+      <c r="A24" s="217">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="237" t="s">
+      <c r="C24" s="219" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="154"/>
-      <c r="E24" s="236" t="s">
+      <c r="D24" s="174"/>
+      <c r="E24" s="220" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="169"/>
+      <c r="F24" s="187"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -7659,16 +7671,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="222"/>
-      <c r="AD24" s="216"/>
+      <c r="AC24" s="235"/>
+      <c r="AD24" s="229"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="225"/>
+      <c r="A25" s="218"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="232"/>
-      <c r="F25" s="173"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="221"/>
+      <c r="F25" s="191"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7691,24 +7703,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="222"/>
-      <c r="AD25" s="216"/>
+      <c r="AC25" s="235"/>
+      <c r="AD25" s="229"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="145">
+      <c r="A26" s="165">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="160" t="s">
+      <c r="C26" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="161"/>
-      <c r="E26" s="238" t="s">
+      <c r="D26" s="198"/>
+      <c r="E26" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="165"/>
+      <c r="F26" s="201"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7731,16 +7743,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="222"/>
-      <c r="AD26" s="216"/>
+      <c r="AC26" s="235"/>
+      <c r="AD26" s="229"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="159"/>
+      <c r="A27" s="156"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="239"/>
-      <c r="F27" s="166"/>
+      <c r="C27" s="199"/>
+      <c r="D27" s="200"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="202"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7763,24 +7775,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="222"/>
-      <c r="AD27" s="216"/>
+      <c r="AC27" s="235"/>
+      <c r="AD27" s="229"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="145">
+      <c r="A28" s="165">
         <v>14</v>
       </c>
-      <c r="B28" s="137" t="s">
+      <c r="B28" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="140"/>
-      <c r="E28" s="137" t="s">
+      <c r="D28" s="189"/>
+      <c r="E28" s="207" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="143"/>
+      <c r="F28" s="211"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7803,16 +7815,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="222"/>
-      <c r="AD28" s="216"/>
+      <c r="AC28" s="235"/>
+      <c r="AD28" s="229"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="240"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="144"/>
+      <c r="A29" s="216"/>
+      <c r="B29" s="208"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="208"/>
+      <c r="F29" s="212"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7835,8 +7847,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="223"/>
-      <c r="AD29" s="217"/>
+      <c r="AC29" s="236"/>
+      <c r="AD29" s="230"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -7856,45 +7868,12 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -7911,12 +7890,45 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
